--- a/Code/Results/Cases/Case_0_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_line/loading_percent.xlsx
@@ -415,25 +415,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.018827149888859</v>
+        <v>8.018827149888793</v>
       </c>
       <c r="D2">
-        <v>12.99349424094934</v>
+        <v>12.99349424094912</v>
       </c>
       <c r="E2">
-        <v>51.00031871329214</v>
+        <v>51.00031871329184</v>
       </c>
       <c r="F2">
-        <v>69.56860851860797</v>
+        <v>69.56860851860738</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>53.45257107417444</v>
+        <v>53.45257107417394</v>
       </c>
       <c r="I2">
-        <v>36.16477773597693</v>
+        <v>36.16477773597664</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>118.0755682126028</v>
+        <v>118.0755682126021</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,22 +456,22 @@
         <v>5.789942769840587</v>
       </c>
       <c r="D3">
-        <v>10.83734804042006</v>
+        <v>10.83734804042021</v>
       </c>
       <c r="E3">
-        <v>44.0641196024319</v>
+        <v>44.06411960243194</v>
       </c>
       <c r="F3">
-        <v>53.14688769413776</v>
+        <v>53.14688769413818</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>41.59518330454847</v>
+        <v>41.5951833045488</v>
       </c>
       <c r="I3">
-        <v>30.62111453540278</v>
+        <v>30.62111453540285</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>102.1438060315856</v>
+        <v>102.1438060315858</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -494,22 +494,22 @@
         <v>4.914681166018635</v>
       </c>
       <c r="D4">
-        <v>9.889864808131627</v>
+        <v>9.889864808131639</v>
       </c>
       <c r="E4">
-        <v>40.88977642030459</v>
+        <v>40.8897764203047</v>
       </c>
       <c r="F4">
-        <v>46.53098243126846</v>
+        <v>46.5309824312686</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>36.74953136247176</v>
+        <v>36.74953136247181</v>
       </c>
       <c r="I4">
-        <v>28.20822450050382</v>
+        <v>28.20822450050391</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>94.78501085968801</v>
+        <v>94.78501085968817</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,25 +529,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.602089244093564</v>
+        <v>4.602089244093567</v>
       </c>
       <c r="D5">
-        <v>9.535501781507326</v>
+        <v>9.53550178150722</v>
       </c>
       <c r="E5">
-        <v>39.67846514577838</v>
+        <v>39.6784651457783</v>
       </c>
       <c r="F5">
-        <v>44.15236413806056</v>
+        <v>44.15236413806053</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>34.99420066796264</v>
+        <v>34.99420066796259</v>
       </c>
       <c r="I5">
-        <v>27.30372774022893</v>
+        <v>27.30372774022883</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>91.97193560511454</v>
+        <v>91.97193560511442</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,25 +567,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.552059107134041</v>
+        <v>4.552059107133773</v>
       </c>
       <c r="D6">
-        <v>9.4779500284279</v>
+        <v>9.477950028427804</v>
       </c>
       <c r="E6">
-        <v>39.48043585158954</v>
+        <v>39.48043585158944</v>
       </c>
       <c r="F6">
-        <v>43.77112395548865</v>
+        <v>43.77112395548819</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>34.71210160118569</v>
+        <v>34.71210160118537</v>
       </c>
       <c r="I6">
-        <v>27.15663520203695</v>
+        <v>27.15663520203687</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>91.51186204455718</v>
+        <v>91.51186204455695</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,22 +605,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.910326211860521</v>
+        <v>4.910326211860522</v>
       </c>
       <c r="D7">
-        <v>9.884988474443512</v>
+        <v>9.88498847444343</v>
       </c>
       <c r="E7">
-        <v>40.87320003188646</v>
+        <v>40.87320003188647</v>
       </c>
       <c r="F7">
-        <v>46.49789016926317</v>
+        <v>46.49789016926236</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>36.7251636828554</v>
+        <v>36.72516368285478</v>
       </c>
       <c r="I7">
         <v>28.19579002876905</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>94.74652933648568</v>
+        <v>94.74652933648551</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,25 +643,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.03403949026678</v>
+        <v>7.034039490266649</v>
       </c>
       <c r="D8">
-        <v>12.082872786258</v>
+        <v>12.08287278625803</v>
       </c>
       <c r="E8">
-        <v>48.11116689476598</v>
+        <v>48.11116689476592</v>
       </c>
       <c r="F8">
-        <v>62.39762218246425</v>
+        <v>62.3976221824639</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>48.30008576691785</v>
+        <v>48.30008576691764</v>
       </c>
       <c r="I8">
-        <v>33.80359459480194</v>
+        <v>33.80359459480189</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>111.476149686546</v>
+        <v>111.4761496865459</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.03403949026678</v>
+        <v>7.034039490266649</v>
       </c>
       <c r="D9">
-        <v>12.082872786258</v>
+        <v>12.08287278625803</v>
       </c>
       <c r="E9">
-        <v>48.11116689476598</v>
+        <v>48.11116689476592</v>
       </c>
       <c r="F9">
-        <v>62.39762218246425</v>
+        <v>62.3976221824639</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>48.30008576691785</v>
+        <v>48.30008576691764</v>
       </c>
       <c r="I9">
-        <v>33.80359459480194</v>
+        <v>33.80359459480189</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>111.476149686546</v>
+        <v>111.4761496865459</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.03403949026678</v>
+        <v>7.034039490266649</v>
       </c>
       <c r="D10">
-        <v>12.082872786258</v>
+        <v>12.08287278625803</v>
       </c>
       <c r="E10">
-        <v>48.11116689476598</v>
+        <v>48.11116689476592</v>
       </c>
       <c r="F10">
-        <v>62.39762218246425</v>
+        <v>62.3976221824639</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>48.30008576691785</v>
+        <v>48.30008576691764</v>
       </c>
       <c r="I10">
-        <v>33.80359459480194</v>
+        <v>33.80359459480189</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>111.476149686546</v>
+        <v>111.4761496865459</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,25 +757,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.03403949026678</v>
+        <v>7.034039490266649</v>
       </c>
       <c r="D11">
-        <v>12.082872786258</v>
+        <v>12.08287278625803</v>
       </c>
       <c r="E11">
-        <v>48.11116689476598</v>
+        <v>48.11116689476592</v>
       </c>
       <c r="F11">
-        <v>62.39762218246425</v>
+        <v>62.3976221824639</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>48.30008576691785</v>
+        <v>48.30008576691764</v>
       </c>
       <c r="I11">
-        <v>33.80359459480194</v>
+        <v>33.80359459480189</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>111.476149686546</v>
+        <v>111.4761496865459</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.03403949026678</v>
+        <v>7.034039490266649</v>
       </c>
       <c r="D12">
-        <v>12.082872786258</v>
+        <v>12.08287278625803</v>
       </c>
       <c r="E12">
-        <v>48.11116689476598</v>
+        <v>48.11116689476592</v>
       </c>
       <c r="F12">
-        <v>62.39762218246425</v>
+        <v>62.3976221824639</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>48.30008576691785</v>
+        <v>48.30008576691764</v>
       </c>
       <c r="I12">
-        <v>33.80359459480194</v>
+        <v>33.80359459480189</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>111.476149686546</v>
+        <v>111.4761496865459</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.03403949026678</v>
+        <v>7.034039490266649</v>
       </c>
       <c r="D13">
-        <v>12.082872786258</v>
+        <v>12.08287278625803</v>
       </c>
       <c r="E13">
-        <v>48.11116689476598</v>
+        <v>48.11116689476592</v>
       </c>
       <c r="F13">
-        <v>62.39762218246425</v>
+        <v>62.3976221824639</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>48.30008576691785</v>
+        <v>48.30008576691764</v>
       </c>
       <c r="I13">
-        <v>33.80359459480194</v>
+        <v>33.80359459480189</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>111.476149686546</v>
+        <v>111.4761496865459</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.03403949026678</v>
+        <v>7.034039490266649</v>
       </c>
       <c r="D14">
-        <v>12.082872786258</v>
+        <v>12.08287278625803</v>
       </c>
       <c r="E14">
-        <v>48.11116689476598</v>
+        <v>48.11116689476592</v>
       </c>
       <c r="F14">
-        <v>62.39762218246425</v>
+        <v>62.3976221824639</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>48.30008576691785</v>
+        <v>48.30008576691764</v>
       </c>
       <c r="I14">
-        <v>33.80359459480194</v>
+        <v>33.80359459480189</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>111.476149686546</v>
+        <v>111.4761496865459</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.03403949026678</v>
+        <v>7.034039490266649</v>
       </c>
       <c r="D15">
-        <v>12.082872786258</v>
+        <v>12.08287278625803</v>
       </c>
       <c r="E15">
-        <v>48.11116689476598</v>
+        <v>48.11116689476592</v>
       </c>
       <c r="F15">
-        <v>62.39762218246425</v>
+        <v>62.3976221824639</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>48.30008576691785</v>
+        <v>48.30008576691764</v>
       </c>
       <c r="I15">
-        <v>33.80359459480194</v>
+        <v>33.80359459480189</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>111.476149686546</v>
+        <v>111.4761496865459</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.03403949026678</v>
+        <v>7.034039490266649</v>
       </c>
       <c r="D16">
-        <v>12.082872786258</v>
+        <v>12.08287278625803</v>
       </c>
       <c r="E16">
-        <v>48.11116689476598</v>
+        <v>48.11116689476592</v>
       </c>
       <c r="F16">
-        <v>62.39762218246425</v>
+        <v>62.3976221824639</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>48.30008576691785</v>
+        <v>48.30008576691764</v>
       </c>
       <c r="I16">
-        <v>33.80359459480194</v>
+        <v>33.80359459480189</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>111.476149686546</v>
+        <v>111.4761496865459</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.03403949026678</v>
+        <v>7.034039490266649</v>
       </c>
       <c r="D17">
-        <v>12.082872786258</v>
+        <v>12.08287278625803</v>
       </c>
       <c r="E17">
-        <v>48.11116689476598</v>
+        <v>48.11116689476592</v>
       </c>
       <c r="F17">
-        <v>62.39762218246425</v>
+        <v>62.3976221824639</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>48.30008576691785</v>
+        <v>48.30008576691764</v>
       </c>
       <c r="I17">
-        <v>33.80359459480194</v>
+        <v>33.80359459480189</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>111.476149686546</v>
+        <v>111.4761496865459</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.03403949026678</v>
+        <v>7.034039490266649</v>
       </c>
       <c r="D18">
-        <v>12.082872786258</v>
+        <v>12.08287278625803</v>
       </c>
       <c r="E18">
-        <v>48.11116689476598</v>
+        <v>48.11116689476592</v>
       </c>
       <c r="F18">
-        <v>62.39762218246425</v>
+        <v>62.3976221824639</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>48.30008576691785</v>
+        <v>48.30008576691764</v>
       </c>
       <c r="I18">
-        <v>33.80359459480194</v>
+        <v>33.80359459480189</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>111.476149686546</v>
+        <v>111.4761496865459</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.03403949026678</v>
+        <v>7.034039490266649</v>
       </c>
       <c r="D19">
-        <v>12.082872786258</v>
+        <v>12.08287278625803</v>
       </c>
       <c r="E19">
-        <v>48.11116689476598</v>
+        <v>48.11116689476592</v>
       </c>
       <c r="F19">
-        <v>62.39762218246425</v>
+        <v>62.3976221824639</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>48.30008576691785</v>
+        <v>48.30008576691764</v>
       </c>
       <c r="I19">
-        <v>33.80359459480194</v>
+        <v>33.80359459480189</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>111.476149686546</v>
+        <v>111.4761496865459</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.03403949026678</v>
+        <v>7.034039490266649</v>
       </c>
       <c r="D20">
-        <v>12.082872786258</v>
+        <v>12.08287278625803</v>
       </c>
       <c r="E20">
-        <v>48.11116689476598</v>
+        <v>48.11116689476592</v>
       </c>
       <c r="F20">
-        <v>62.39762218246425</v>
+        <v>62.3976221824639</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>48.30008576691785</v>
+        <v>48.30008576691764</v>
       </c>
       <c r="I20">
-        <v>33.80359459480194</v>
+        <v>33.80359459480189</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>111.476149686546</v>
+        <v>111.4761496865459</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.03403949026678</v>
+        <v>7.034039490266649</v>
       </c>
       <c r="D21">
-        <v>12.082872786258</v>
+        <v>12.08287278625803</v>
       </c>
       <c r="E21">
-        <v>48.11116689476598</v>
+        <v>48.11116689476592</v>
       </c>
       <c r="F21">
-        <v>62.39762218246425</v>
+        <v>62.3976221824639</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>48.30008576691785</v>
+        <v>48.30008576691764</v>
       </c>
       <c r="I21">
-        <v>33.80359459480194</v>
+        <v>33.80359459480189</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>111.476149686546</v>
+        <v>111.4761496865459</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.03403949026678</v>
+        <v>7.034039490266649</v>
       </c>
       <c r="D22">
-        <v>12.082872786258</v>
+        <v>12.08287278625803</v>
       </c>
       <c r="E22">
-        <v>48.11116689476598</v>
+        <v>48.11116689476592</v>
       </c>
       <c r="F22">
-        <v>62.39762218246425</v>
+        <v>62.3976221824639</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>48.30008576691785</v>
+        <v>48.30008576691764</v>
       </c>
       <c r="I22">
-        <v>33.80359459480194</v>
+        <v>33.80359459480189</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>111.476149686546</v>
+        <v>111.4761496865459</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.03403949026678</v>
+        <v>7.034039490266649</v>
       </c>
       <c r="D23">
-        <v>12.082872786258</v>
+        <v>12.08287278625803</v>
       </c>
       <c r="E23">
-        <v>48.11116689476598</v>
+        <v>48.11116689476592</v>
       </c>
       <c r="F23">
-        <v>62.39762218246425</v>
+        <v>62.3976221824639</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>48.30008576691785</v>
+        <v>48.30008576691764</v>
       </c>
       <c r="I23">
-        <v>33.80359459480194</v>
+        <v>33.80359459480189</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>111.476149686546</v>
+        <v>111.4761496865459</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,25 +1251,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.03403949026678</v>
+        <v>7.034039490266649</v>
       </c>
       <c r="D24">
-        <v>12.082872786258</v>
+        <v>12.08287278625803</v>
       </c>
       <c r="E24">
-        <v>48.11116689476598</v>
+        <v>48.11116689476592</v>
       </c>
       <c r="F24">
-        <v>62.39762218246425</v>
+        <v>62.3976221824639</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>48.30008576691785</v>
+        <v>48.30008576691764</v>
       </c>
       <c r="I24">
-        <v>33.80359459480194</v>
+        <v>33.80359459480189</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>111.476149686546</v>
+        <v>111.4761496865459</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,25 +1289,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.03403949026678</v>
+        <v>7.034039490266649</v>
       </c>
       <c r="D25">
-        <v>12.082872786258</v>
+        <v>12.08287278625803</v>
       </c>
       <c r="E25">
-        <v>48.11116689476598</v>
+        <v>48.11116689476592</v>
       </c>
       <c r="F25">
-        <v>62.39762218246425</v>
+        <v>62.3976221824639</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>48.30008576691785</v>
+        <v>48.30008576691764</v>
       </c>
       <c r="I25">
-        <v>33.80359459480194</v>
+        <v>33.80359459480189</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>111.476149686546</v>
+        <v>111.4761496865459</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_line/loading_percent.xlsx
@@ -415,25 +415,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.018827149888793</v>
+        <v>8.018827149888859</v>
       </c>
       <c r="D2">
-        <v>12.99349424094912</v>
+        <v>12.99349424094934</v>
       </c>
       <c r="E2">
-        <v>51.00031871329184</v>
+        <v>51.00031871329214</v>
       </c>
       <c r="F2">
-        <v>69.56860851860738</v>
+        <v>69.56860851860797</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>53.45257107417394</v>
+        <v>53.45257107417444</v>
       </c>
       <c r="I2">
-        <v>36.16477773597664</v>
+        <v>36.16477773597693</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>118.0755682126021</v>
+        <v>118.0755682126028</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,22 +456,22 @@
         <v>5.789942769840587</v>
       </c>
       <c r="D3">
-        <v>10.83734804042021</v>
+        <v>10.83734804042006</v>
       </c>
       <c r="E3">
-        <v>44.06411960243194</v>
+        <v>44.0641196024319</v>
       </c>
       <c r="F3">
-        <v>53.14688769413818</v>
+        <v>53.14688769413776</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>41.5951833045488</v>
+        <v>41.59518330454847</v>
       </c>
       <c r="I3">
-        <v>30.62111453540285</v>
+        <v>30.62111453540278</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>102.1438060315858</v>
+        <v>102.1438060315856</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -494,22 +494,22 @@
         <v>4.914681166018635</v>
       </c>
       <c r="D4">
-        <v>9.889864808131639</v>
+        <v>9.889864808131627</v>
       </c>
       <c r="E4">
-        <v>40.8897764203047</v>
+        <v>40.88977642030459</v>
       </c>
       <c r="F4">
-        <v>46.5309824312686</v>
+        <v>46.53098243126846</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>36.74953136247181</v>
+        <v>36.74953136247176</v>
       </c>
       <c r="I4">
-        <v>28.20822450050391</v>
+        <v>28.20822450050382</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>94.78501085968817</v>
+        <v>94.78501085968801</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,25 +529,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.602089244093567</v>
+        <v>4.602089244093564</v>
       </c>
       <c r="D5">
-        <v>9.53550178150722</v>
+        <v>9.535501781507326</v>
       </c>
       <c r="E5">
-        <v>39.6784651457783</v>
+        <v>39.67846514577838</v>
       </c>
       <c r="F5">
-        <v>44.15236413806053</v>
+        <v>44.15236413806056</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>34.99420066796259</v>
+        <v>34.99420066796264</v>
       </c>
       <c r="I5">
-        <v>27.30372774022883</v>
+        <v>27.30372774022893</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>91.97193560511442</v>
+        <v>91.97193560511454</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,25 +567,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.552059107133773</v>
+        <v>4.552059107134041</v>
       </c>
       <c r="D6">
-        <v>9.477950028427804</v>
+        <v>9.4779500284279</v>
       </c>
       <c r="E6">
-        <v>39.48043585158944</v>
+        <v>39.48043585158954</v>
       </c>
       <c r="F6">
-        <v>43.77112395548819</v>
+        <v>43.77112395548865</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>34.71210160118537</v>
+        <v>34.71210160118569</v>
       </c>
       <c r="I6">
-        <v>27.15663520203687</v>
+        <v>27.15663520203695</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>91.51186204455695</v>
+        <v>91.51186204455718</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,22 +605,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.910326211860522</v>
+        <v>4.910326211860521</v>
       </c>
       <c r="D7">
-        <v>9.88498847444343</v>
+        <v>9.884988474443512</v>
       </c>
       <c r="E7">
-        <v>40.87320003188647</v>
+        <v>40.87320003188646</v>
       </c>
       <c r="F7">
-        <v>46.49789016926236</v>
+        <v>46.49789016926317</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>36.72516368285478</v>
+        <v>36.7251636828554</v>
       </c>
       <c r="I7">
         <v>28.19579002876905</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>94.74652933648551</v>
+        <v>94.74652933648568</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,25 +643,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.034039490266649</v>
+        <v>7.03403949026678</v>
       </c>
       <c r="D8">
-        <v>12.08287278625803</v>
+        <v>12.082872786258</v>
       </c>
       <c r="E8">
-        <v>48.11116689476592</v>
+        <v>48.11116689476598</v>
       </c>
       <c r="F8">
-        <v>62.3976221824639</v>
+        <v>62.39762218246425</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>48.30008576691764</v>
+        <v>48.30008576691785</v>
       </c>
       <c r="I8">
-        <v>33.80359459480189</v>
+        <v>33.80359459480194</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>111.4761496865459</v>
+        <v>111.476149686546</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.034039490266649</v>
+        <v>7.03403949026678</v>
       </c>
       <c r="D9">
-        <v>12.08287278625803</v>
+        <v>12.082872786258</v>
       </c>
       <c r="E9">
-        <v>48.11116689476592</v>
+        <v>48.11116689476598</v>
       </c>
       <c r="F9">
-        <v>62.3976221824639</v>
+        <v>62.39762218246425</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>48.30008576691764</v>
+        <v>48.30008576691785</v>
       </c>
       <c r="I9">
-        <v>33.80359459480189</v>
+        <v>33.80359459480194</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>111.4761496865459</v>
+        <v>111.476149686546</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.034039490266649</v>
+        <v>7.03403949026678</v>
       </c>
       <c r="D10">
-        <v>12.08287278625803</v>
+        <v>12.082872786258</v>
       </c>
       <c r="E10">
-        <v>48.11116689476592</v>
+        <v>48.11116689476598</v>
       </c>
       <c r="F10">
-        <v>62.3976221824639</v>
+        <v>62.39762218246425</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>48.30008576691764</v>
+        <v>48.30008576691785</v>
       </c>
       <c r="I10">
-        <v>33.80359459480189</v>
+        <v>33.80359459480194</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>111.4761496865459</v>
+        <v>111.476149686546</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,25 +757,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.034039490266649</v>
+        <v>7.03403949026678</v>
       </c>
       <c r="D11">
-        <v>12.08287278625803</v>
+        <v>12.082872786258</v>
       </c>
       <c r="E11">
-        <v>48.11116689476592</v>
+        <v>48.11116689476598</v>
       </c>
       <c r="F11">
-        <v>62.3976221824639</v>
+        <v>62.39762218246425</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>48.30008576691764</v>
+        <v>48.30008576691785</v>
       </c>
       <c r="I11">
-        <v>33.80359459480189</v>
+        <v>33.80359459480194</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>111.4761496865459</v>
+        <v>111.476149686546</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.034039490266649</v>
+        <v>7.03403949026678</v>
       </c>
       <c r="D12">
-        <v>12.08287278625803</v>
+        <v>12.082872786258</v>
       </c>
       <c r="E12">
-        <v>48.11116689476592</v>
+        <v>48.11116689476598</v>
       </c>
       <c r="F12">
-        <v>62.3976221824639</v>
+        <v>62.39762218246425</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>48.30008576691764</v>
+        <v>48.30008576691785</v>
       </c>
       <c r="I12">
-        <v>33.80359459480189</v>
+        <v>33.80359459480194</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>111.4761496865459</v>
+        <v>111.476149686546</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.034039490266649</v>
+        <v>7.03403949026678</v>
       </c>
       <c r="D13">
-        <v>12.08287278625803</v>
+        <v>12.082872786258</v>
       </c>
       <c r="E13">
-        <v>48.11116689476592</v>
+        <v>48.11116689476598</v>
       </c>
       <c r="F13">
-        <v>62.3976221824639</v>
+        <v>62.39762218246425</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>48.30008576691764</v>
+        <v>48.30008576691785</v>
       </c>
       <c r="I13">
-        <v>33.80359459480189</v>
+        <v>33.80359459480194</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>111.4761496865459</v>
+        <v>111.476149686546</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.034039490266649</v>
+        <v>7.03403949026678</v>
       </c>
       <c r="D14">
-        <v>12.08287278625803</v>
+        <v>12.082872786258</v>
       </c>
       <c r="E14">
-        <v>48.11116689476592</v>
+        <v>48.11116689476598</v>
       </c>
       <c r="F14">
-        <v>62.3976221824639</v>
+        <v>62.39762218246425</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>48.30008576691764</v>
+        <v>48.30008576691785</v>
       </c>
       <c r="I14">
-        <v>33.80359459480189</v>
+        <v>33.80359459480194</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>111.4761496865459</v>
+        <v>111.476149686546</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.034039490266649</v>
+        <v>7.03403949026678</v>
       </c>
       <c r="D15">
-        <v>12.08287278625803</v>
+        <v>12.082872786258</v>
       </c>
       <c r="E15">
-        <v>48.11116689476592</v>
+        <v>48.11116689476598</v>
       </c>
       <c r="F15">
-        <v>62.3976221824639</v>
+        <v>62.39762218246425</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>48.30008576691764</v>
+        <v>48.30008576691785</v>
       </c>
       <c r="I15">
-        <v>33.80359459480189</v>
+        <v>33.80359459480194</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>111.4761496865459</v>
+        <v>111.476149686546</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.034039490266649</v>
+        <v>7.03403949026678</v>
       </c>
       <c r="D16">
-        <v>12.08287278625803</v>
+        <v>12.082872786258</v>
       </c>
       <c r="E16">
-        <v>48.11116689476592</v>
+        <v>48.11116689476598</v>
       </c>
       <c r="F16">
-        <v>62.3976221824639</v>
+        <v>62.39762218246425</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>48.30008576691764</v>
+        <v>48.30008576691785</v>
       </c>
       <c r="I16">
-        <v>33.80359459480189</v>
+        <v>33.80359459480194</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>111.4761496865459</v>
+        <v>111.476149686546</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.034039490266649</v>
+        <v>7.03403949026678</v>
       </c>
       <c r="D17">
-        <v>12.08287278625803</v>
+        <v>12.082872786258</v>
       </c>
       <c r="E17">
-        <v>48.11116689476592</v>
+        <v>48.11116689476598</v>
       </c>
       <c r="F17">
-        <v>62.3976221824639</v>
+        <v>62.39762218246425</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>48.30008576691764</v>
+        <v>48.30008576691785</v>
       </c>
       <c r="I17">
-        <v>33.80359459480189</v>
+        <v>33.80359459480194</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>111.4761496865459</v>
+        <v>111.476149686546</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.034039490266649</v>
+        <v>7.03403949026678</v>
       </c>
       <c r="D18">
-        <v>12.08287278625803</v>
+        <v>12.082872786258</v>
       </c>
       <c r="E18">
-        <v>48.11116689476592</v>
+        <v>48.11116689476598</v>
       </c>
       <c r="F18">
-        <v>62.3976221824639</v>
+        <v>62.39762218246425</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>48.30008576691764</v>
+        <v>48.30008576691785</v>
       </c>
       <c r="I18">
-        <v>33.80359459480189</v>
+        <v>33.80359459480194</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>111.4761496865459</v>
+        <v>111.476149686546</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.034039490266649</v>
+        <v>7.03403949026678</v>
       </c>
       <c r="D19">
-        <v>12.08287278625803</v>
+        <v>12.082872786258</v>
       </c>
       <c r="E19">
-        <v>48.11116689476592</v>
+        <v>48.11116689476598</v>
       </c>
       <c r="F19">
-        <v>62.3976221824639</v>
+        <v>62.39762218246425</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>48.30008576691764</v>
+        <v>48.30008576691785</v>
       </c>
       <c r="I19">
-        <v>33.80359459480189</v>
+        <v>33.80359459480194</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>111.4761496865459</v>
+        <v>111.476149686546</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.034039490266649</v>
+        <v>7.03403949026678</v>
       </c>
       <c r="D20">
-        <v>12.08287278625803</v>
+        <v>12.082872786258</v>
       </c>
       <c r="E20">
-        <v>48.11116689476592</v>
+        <v>48.11116689476598</v>
       </c>
       <c r="F20">
-        <v>62.3976221824639</v>
+        <v>62.39762218246425</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>48.30008576691764</v>
+        <v>48.30008576691785</v>
       </c>
       <c r="I20">
-        <v>33.80359459480189</v>
+        <v>33.80359459480194</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>111.4761496865459</v>
+        <v>111.476149686546</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.034039490266649</v>
+        <v>7.03403949026678</v>
       </c>
       <c r="D21">
-        <v>12.08287278625803</v>
+        <v>12.082872786258</v>
       </c>
       <c r="E21">
-        <v>48.11116689476592</v>
+        <v>48.11116689476598</v>
       </c>
       <c r="F21">
-        <v>62.3976221824639</v>
+        <v>62.39762218246425</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>48.30008576691764</v>
+        <v>48.30008576691785</v>
       </c>
       <c r="I21">
-        <v>33.80359459480189</v>
+        <v>33.80359459480194</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>111.4761496865459</v>
+        <v>111.476149686546</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.034039490266649</v>
+        <v>7.03403949026678</v>
       </c>
       <c r="D22">
-        <v>12.08287278625803</v>
+        <v>12.082872786258</v>
       </c>
       <c r="E22">
-        <v>48.11116689476592</v>
+        <v>48.11116689476598</v>
       </c>
       <c r="F22">
-        <v>62.3976221824639</v>
+        <v>62.39762218246425</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>48.30008576691764</v>
+        <v>48.30008576691785</v>
       </c>
       <c r="I22">
-        <v>33.80359459480189</v>
+        <v>33.80359459480194</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>111.4761496865459</v>
+        <v>111.476149686546</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.034039490266649</v>
+        <v>7.03403949026678</v>
       </c>
       <c r="D23">
-        <v>12.08287278625803</v>
+        <v>12.082872786258</v>
       </c>
       <c r="E23">
-        <v>48.11116689476592</v>
+        <v>48.11116689476598</v>
       </c>
       <c r="F23">
-        <v>62.3976221824639</v>
+        <v>62.39762218246425</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>48.30008576691764</v>
+        <v>48.30008576691785</v>
       </c>
       <c r="I23">
-        <v>33.80359459480189</v>
+        <v>33.80359459480194</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>111.4761496865459</v>
+        <v>111.476149686546</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,25 +1251,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.034039490266649</v>
+        <v>7.03403949026678</v>
       </c>
       <c r="D24">
-        <v>12.08287278625803</v>
+        <v>12.082872786258</v>
       </c>
       <c r="E24">
-        <v>48.11116689476592</v>
+        <v>48.11116689476598</v>
       </c>
       <c r="F24">
-        <v>62.3976221824639</v>
+        <v>62.39762218246425</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>48.30008576691764</v>
+        <v>48.30008576691785</v>
       </c>
       <c r="I24">
-        <v>33.80359459480189</v>
+        <v>33.80359459480194</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>111.4761496865459</v>
+        <v>111.476149686546</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,25 +1289,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.034039490266649</v>
+        <v>7.03403949026678</v>
       </c>
       <c r="D25">
-        <v>12.08287278625803</v>
+        <v>12.082872786258</v>
       </c>
       <c r="E25">
-        <v>48.11116689476592</v>
+        <v>48.11116689476598</v>
       </c>
       <c r="F25">
-        <v>62.3976221824639</v>
+        <v>62.39762218246425</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>48.30008576691764</v>
+        <v>48.30008576691785</v>
       </c>
       <c r="I25">
-        <v>33.80359459480189</v>
+        <v>33.80359459480194</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>111.4761496865459</v>
+        <v>111.476149686546</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.018827149888859</v>
+        <v>7.706083398190606</v>
       </c>
       <c r="D2">
-        <v>12.99349424094934</v>
+        <v>12.72380747453226</v>
       </c>
       <c r="E2">
-        <v>51.00031871329214</v>
+        <v>50.66971652481516</v>
       </c>
       <c r="F2">
-        <v>69.56860851860797</v>
+        <v>67.80048073690142</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.66157422213031</v>
       </c>
       <c r="H2">
-        <v>53.45257107417444</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>36.16477773597693</v>
+        <v>52.17314458668037</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>35.84063636051601</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>118.0755682126028</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>117.1442084742952</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.789942769840587</v>
+        <v>5.567799577518382</v>
       </c>
       <c r="D3">
-        <v>10.83734804042006</v>
+        <v>10.65352590653985</v>
       </c>
       <c r="E3">
-        <v>44.0641196024319</v>
+        <v>43.95642038203851</v>
       </c>
       <c r="F3">
-        <v>53.14688769413776</v>
+        <v>52.13143838068756</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.777522059883897</v>
       </c>
       <c r="H3">
-        <v>41.59518330454847</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>30.62111453540278</v>
+        <v>40.84802272887586</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>30.50213004745935</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>102.1438060315856</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>101.734782245909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.914681166018635</v>
+        <v>4.705407450671191</v>
       </c>
       <c r="D4">
-        <v>9.889864808131627</v>
+        <v>9.723543484385187</v>
       </c>
       <c r="E4">
-        <v>40.88977642030459</v>
+        <v>40.81630984536004</v>
       </c>
       <c r="F4">
-        <v>46.53098243126846</v>
+        <v>45.67622154768712</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.825758428878463</v>
       </c>
       <c r="H4">
-        <v>36.74953136247176</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>28.20822450050382</v>
+        <v>36.11422840947014</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>28.12184860079595</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>94.78501085968801</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>94.4643584353225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.602089244093564</v>
+        <v>4.396151313894239</v>
       </c>
       <c r="D5">
-        <v>9.535501781507326</v>
+        <v>9.374683031644503</v>
       </c>
       <c r="E5">
-        <v>39.67846514577838</v>
+        <v>39.61441259943168</v>
       </c>
       <c r="F5">
-        <v>44.15236413806056</v>
+        <v>43.35100131924204</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.843273589482157</v>
       </c>
       <c r="H5">
-        <v>34.99420066796264</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>27.30372774022893</v>
+        <v>34.39553194971136</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>27.22646977737328</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>91.97193560511454</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>91.67668963263137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.552059107134041</v>
+        <v>4.346606380108167</v>
       </c>
       <c r="D6">
-        <v>9.4779500284279</v>
+        <v>9.317986875821061</v>
       </c>
       <c r="E6">
-        <v>39.48043585158954</v>
+        <v>39.41778392552216</v>
       </c>
       <c r="F6">
-        <v>43.77112395548865</v>
+        <v>42.97825427848552</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.846090665445478</v>
       </c>
       <c r="H6">
-        <v>34.71210160118569</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>27.15663520203695</v>
+        <v>34.11922666863019</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>27.08074149315409</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>91.51186204455718</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>91.22045139444445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.910326211860521</v>
+        <v>4.701102802361741</v>
       </c>
       <c r="D7">
-        <v>9.884988474443512</v>
+        <v>9.718745881142542</v>
       </c>
       <c r="E7">
-        <v>40.87320003188646</v>
+        <v>40.799873019694</v>
       </c>
       <c r="F7">
-        <v>46.49789016926317</v>
+        <v>45.64388004590796</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.82600142316264</v>
       </c>
       <c r="H7">
-        <v>36.7251636828554</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>28.19579002876905</v>
+        <v>36.09037810366329</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>28.10954870223131</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>94.74652933648568</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>94.42624921198835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.03403949026678</v>
+        <v>6.778122356541948</v>
       </c>
       <c r="D8">
-        <v>12.082872786258</v>
+        <v>11.86353610468843</v>
       </c>
       <c r="E8">
-        <v>48.11116689476598</v>
+        <v>47.91900851631192</v>
       </c>
       <c r="F8">
-        <v>62.39762218246425</v>
+        <v>61.07031487708614</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.711264826691938</v>
       </c>
       <c r="H8">
-        <v>48.30008576691785</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>33.80359459480194</v>
+        <v>47.33285908980957</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>33.60602277480434</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>111.476149686546</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>110.8629639935808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.03403949026678</v>
+        <v>6.778122356541948</v>
       </c>
       <c r="D9">
-        <v>12.082872786258</v>
+        <v>11.86353610468843</v>
       </c>
       <c r="E9">
-        <v>48.11116689476598</v>
+        <v>47.91900851631192</v>
       </c>
       <c r="F9">
-        <v>62.39762218246425</v>
+        <v>61.07031487708614</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.711264826691938</v>
       </c>
       <c r="H9">
-        <v>48.30008576691785</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>33.80359459480194</v>
+        <v>47.33285908980957</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>33.60602277480434</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>111.476149686546</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>110.8629639935808</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.03403949026678</v>
+        <v>6.778122356541948</v>
       </c>
       <c r="D10">
-        <v>12.082872786258</v>
+        <v>11.86353610468843</v>
       </c>
       <c r="E10">
-        <v>48.11116689476598</v>
+        <v>47.91900851631192</v>
       </c>
       <c r="F10">
-        <v>62.39762218246425</v>
+        <v>61.07031487708614</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.711264826691938</v>
       </c>
       <c r="H10">
-        <v>48.30008576691785</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>33.80359459480194</v>
+        <v>47.33285908980957</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>33.60602277480434</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>111.476149686546</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>110.8629639935808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.03403949026678</v>
+        <v>6.778122356541948</v>
       </c>
       <c r="D11">
-        <v>12.082872786258</v>
+        <v>11.86353610468843</v>
       </c>
       <c r="E11">
-        <v>48.11116689476598</v>
+        <v>47.91900851631192</v>
       </c>
       <c r="F11">
-        <v>62.39762218246425</v>
+        <v>61.07031487708614</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.711264826691938</v>
       </c>
       <c r="H11">
-        <v>48.30008576691785</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>33.80359459480194</v>
+        <v>47.33285908980957</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>33.60602277480434</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>111.476149686546</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>110.8629639935808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.03403949026678</v>
+        <v>6.778122356541948</v>
       </c>
       <c r="D12">
-        <v>12.082872786258</v>
+        <v>11.86353610468843</v>
       </c>
       <c r="E12">
-        <v>48.11116689476598</v>
+        <v>47.91900851631192</v>
       </c>
       <c r="F12">
-        <v>62.39762218246425</v>
+        <v>61.07031487708614</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.711264826691938</v>
       </c>
       <c r="H12">
-        <v>48.30008576691785</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>33.80359459480194</v>
+        <v>47.33285908980957</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>33.60602277480434</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>111.476149686546</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>110.8629639935808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.03403949026678</v>
+        <v>6.778122356541948</v>
       </c>
       <c r="D13">
-        <v>12.082872786258</v>
+        <v>11.86353610468843</v>
       </c>
       <c r="E13">
-        <v>48.11116689476598</v>
+        <v>47.91900851631192</v>
       </c>
       <c r="F13">
-        <v>62.39762218246425</v>
+        <v>61.07031487708614</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.711264826691938</v>
       </c>
       <c r="H13">
-        <v>48.30008576691785</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>33.80359459480194</v>
+        <v>47.33285908980957</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>33.60602277480434</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>111.476149686546</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>110.8629639935808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.03403949026678</v>
+        <v>6.778122356541948</v>
       </c>
       <c r="D14">
-        <v>12.082872786258</v>
+        <v>11.86353610468843</v>
       </c>
       <c r="E14">
-        <v>48.11116689476598</v>
+        <v>47.91900851631192</v>
       </c>
       <c r="F14">
-        <v>62.39762218246425</v>
+        <v>61.07031487708614</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.711264826691938</v>
       </c>
       <c r="H14">
-        <v>48.30008576691785</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>33.80359459480194</v>
+        <v>47.33285908980957</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>33.60602277480434</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>111.476149686546</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>110.8629639935808</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.03403949026678</v>
+        <v>6.778122356541948</v>
       </c>
       <c r="D15">
-        <v>12.082872786258</v>
+        <v>11.86353610468843</v>
       </c>
       <c r="E15">
-        <v>48.11116689476598</v>
+        <v>47.91900851631192</v>
       </c>
       <c r="F15">
-        <v>62.39762218246425</v>
+        <v>61.07031487708614</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.711264826691938</v>
       </c>
       <c r="H15">
-        <v>48.30008576691785</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>33.80359459480194</v>
+        <v>47.33285908980957</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>33.60602277480434</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>111.476149686546</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>110.8629639935808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.03403949026678</v>
+        <v>6.778122356541948</v>
       </c>
       <c r="D16">
-        <v>12.082872786258</v>
+        <v>11.86353610468843</v>
       </c>
       <c r="E16">
-        <v>48.11116689476598</v>
+        <v>47.91900851631192</v>
       </c>
       <c r="F16">
-        <v>62.39762218246425</v>
+        <v>61.07031487708614</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.711264826691938</v>
       </c>
       <c r="H16">
-        <v>48.30008576691785</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>33.80359459480194</v>
+        <v>47.33285908980957</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>33.60602277480434</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>111.476149686546</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>110.8629639935808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.03403949026678</v>
+        <v>6.778122356541948</v>
       </c>
       <c r="D17">
-        <v>12.082872786258</v>
+        <v>11.86353610468843</v>
       </c>
       <c r="E17">
-        <v>48.11116689476598</v>
+        <v>47.91900851631192</v>
       </c>
       <c r="F17">
-        <v>62.39762218246425</v>
+        <v>61.07031487708614</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.711264826691938</v>
       </c>
       <c r="H17">
-        <v>48.30008576691785</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>33.80359459480194</v>
+        <v>47.33285908980957</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>33.60602277480434</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>111.476149686546</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>110.8629639935808</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.03403949026678</v>
+        <v>6.778122356541948</v>
       </c>
       <c r="D18">
-        <v>12.082872786258</v>
+        <v>11.86353610468843</v>
       </c>
       <c r="E18">
-        <v>48.11116689476598</v>
+        <v>47.91900851631192</v>
       </c>
       <c r="F18">
-        <v>62.39762218246425</v>
+        <v>61.07031487708614</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.711264826691938</v>
       </c>
       <c r="H18">
-        <v>48.30008576691785</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>33.80359459480194</v>
+        <v>47.33285908980957</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>33.60602277480434</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>111.476149686546</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>110.8629639935808</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.03403949026678</v>
+        <v>6.778122356541948</v>
       </c>
       <c r="D19">
-        <v>12.082872786258</v>
+        <v>11.86353610468843</v>
       </c>
       <c r="E19">
-        <v>48.11116689476598</v>
+        <v>47.91900851631192</v>
       </c>
       <c r="F19">
-        <v>62.39762218246425</v>
+        <v>61.07031487708614</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.711264826691938</v>
       </c>
       <c r="H19">
-        <v>48.30008576691785</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>33.80359459480194</v>
+        <v>47.33285908980957</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>33.60602277480434</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>111.476149686546</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>110.8629639935808</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.03403949026678</v>
+        <v>6.778122356541948</v>
       </c>
       <c r="D20">
-        <v>12.082872786258</v>
+        <v>11.86353610468843</v>
       </c>
       <c r="E20">
-        <v>48.11116689476598</v>
+        <v>47.91900851631192</v>
       </c>
       <c r="F20">
-        <v>62.39762218246425</v>
+        <v>61.07031487708614</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.711264826691938</v>
       </c>
       <c r="H20">
-        <v>48.30008576691785</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>33.80359459480194</v>
+        <v>47.33285908980957</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>33.60602277480434</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>111.476149686546</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>110.8629639935808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.03403949026678</v>
+        <v>6.778122356541948</v>
       </c>
       <c r="D21">
-        <v>12.082872786258</v>
+        <v>11.86353610468843</v>
       </c>
       <c r="E21">
-        <v>48.11116689476598</v>
+        <v>47.91900851631192</v>
       </c>
       <c r="F21">
-        <v>62.39762218246425</v>
+        <v>61.07031487708614</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.711264826691938</v>
       </c>
       <c r="H21">
-        <v>48.30008576691785</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>33.80359459480194</v>
+        <v>47.33285908980957</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>33.60602277480434</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>111.476149686546</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>110.8629639935808</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.03403949026678</v>
+        <v>6.778122356541948</v>
       </c>
       <c r="D22">
-        <v>12.082872786258</v>
+        <v>11.86353610468843</v>
       </c>
       <c r="E22">
-        <v>48.11116689476598</v>
+        <v>47.91900851631192</v>
       </c>
       <c r="F22">
-        <v>62.39762218246425</v>
+        <v>61.07031487708614</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.711264826691938</v>
       </c>
       <c r="H22">
-        <v>48.30008576691785</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>33.80359459480194</v>
+        <v>47.33285908980957</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>33.60602277480434</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>111.476149686546</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>110.8629639935808</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.03403949026678</v>
+        <v>6.778122356541948</v>
       </c>
       <c r="D23">
-        <v>12.082872786258</v>
+        <v>11.86353610468843</v>
       </c>
       <c r="E23">
-        <v>48.11116689476598</v>
+        <v>47.91900851631192</v>
       </c>
       <c r="F23">
-        <v>62.39762218246425</v>
+        <v>61.07031487708614</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.711264826691938</v>
       </c>
       <c r="H23">
-        <v>48.30008576691785</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>33.80359459480194</v>
+        <v>47.33285908980957</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>33.60602277480434</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>111.476149686546</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>110.8629639935808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.03403949026678</v>
+        <v>6.778122356541948</v>
       </c>
       <c r="D24">
-        <v>12.082872786258</v>
+        <v>11.86353610468843</v>
       </c>
       <c r="E24">
-        <v>48.11116689476598</v>
+        <v>47.91900851631192</v>
       </c>
       <c r="F24">
-        <v>62.39762218246425</v>
+        <v>61.07031487708614</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.711264826691938</v>
       </c>
       <c r="H24">
-        <v>48.30008576691785</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>33.80359459480194</v>
+        <v>47.33285908980957</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>33.60602277480434</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>111.476149686546</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>110.8629639935808</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.03403949026678</v>
+        <v>6.778122356541948</v>
       </c>
       <c r="D25">
-        <v>12.082872786258</v>
+        <v>11.86353610468843</v>
       </c>
       <c r="E25">
-        <v>48.11116689476598</v>
+        <v>47.91900851631192</v>
       </c>
       <c r="F25">
-        <v>62.39762218246425</v>
+        <v>61.07031487708614</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.711264826691938</v>
       </c>
       <c r="H25">
-        <v>48.30008576691785</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>33.80359459480194</v>
+        <v>47.33285908980957</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>33.60602277480434</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>111.476149686546</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>110.8629639935808</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.706083398190606</v>
+        <v>12.67312975332768</v>
       </c>
       <c r="D2">
-        <v>12.72380747453226</v>
+        <v>3.850085258424121</v>
       </c>
       <c r="E2">
-        <v>50.66971652481516</v>
+        <v>11.71242462061011</v>
       </c>
       <c r="F2">
-        <v>67.80048073690142</v>
+        <v>40.18143277003837</v>
       </c>
       <c r="G2">
-        <v>1.66157422213031</v>
+        <v>1.933416061040903</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>52.17314458668037</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>35.84063636051601</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>100.3636396171009</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.954108428209218</v>
       </c>
       <c r="M2">
-        <v>117.1442084742952</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>31.47079293667508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.567799577518382</v>
+        <v>11.86939572191759</v>
       </c>
       <c r="D3">
-        <v>10.65352590653985</v>
+        <v>3.034788901143969</v>
       </c>
       <c r="E3">
-        <v>43.95642038203851</v>
+        <v>11.06076776404648</v>
       </c>
       <c r="F3">
-        <v>52.13143838068756</v>
+        <v>35.99329661628088</v>
       </c>
       <c r="G3">
-        <v>1.777522059883897</v>
+        <v>1.970410589379169</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>40.84802272887586</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>30.50213004745935</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>92.57139189628984</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.809770758194531</v>
       </c>
       <c r="M3">
-        <v>101.734782245909</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>28.00096219502456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.705407450671191</v>
+        <v>11.39397259301516</v>
       </c>
       <c r="D4">
-        <v>9.723543484385187</v>
+        <v>2.578388114976014</v>
       </c>
       <c r="E4">
-        <v>40.81630984536004</v>
+        <v>10.68113727663041</v>
       </c>
       <c r="F4">
-        <v>45.67622154768712</v>
+        <v>33.6347662945611</v>
       </c>
       <c r="G4">
-        <v>1.825758428878463</v>
+        <v>1.992242929098856</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>36.11422840947014</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>28.12184860079595</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>87.68006460454289</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.73263630675498</v>
       </c>
       <c r="M4">
-        <v>94.4643584353225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>26.04887592527095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.396151313894239</v>
+        <v>11.20371300729829</v>
       </c>
       <c r="D5">
-        <v>9.374683031644503</v>
+        <v>2.418717923680374</v>
       </c>
       <c r="E5">
-        <v>39.61441259943168</v>
+        <v>10.53060484411808</v>
       </c>
       <c r="F5">
-        <v>43.35100131924204</v>
+        <v>32.7464759292701</v>
       </c>
       <c r="G5">
-        <v>1.843273589482157</v>
+        <v>2.000996588408335</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>34.39553194971136</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>27.22646977737328</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>85.65255575557437</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.703650560500364</v>
       </c>
       <c r="M5">
-        <v>91.67668963263137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>25.32929880700384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.346606380108167</v>
+        <v>11.17230692411404</v>
       </c>
       <c r="D6">
-        <v>9.317986875821061</v>
+        <v>2.431403239115609</v>
       </c>
       <c r="E6">
-        <v>39.41778392552216</v>
+        <v>10.50583856041478</v>
       </c>
       <c r="F6">
-        <v>42.97825427848552</v>
+        <v>32.62283184626077</v>
       </c>
       <c r="G6">
-        <v>1.846090665445478</v>
+        <v>2.002443365309827</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>34.11922666863019</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>27.08074149315409</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>85.31658161817649</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.698974587521813</v>
       </c>
       <c r="M6">
-        <v>91.22045139444445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>25.24261286968332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.701102802361741</v>
+        <v>11.39139371721427</v>
       </c>
       <c r="D7">
-        <v>9.718745881142542</v>
+        <v>2.5759805663994</v>
       </c>
       <c r="E7">
-        <v>40.799873019694</v>
+        <v>10.67909130739571</v>
       </c>
       <c r="F7">
-        <v>45.64388004590796</v>
+        <v>33.62224664793993</v>
       </c>
       <c r="G7">
-        <v>1.82600142316264</v>
+        <v>1.992361476029086</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>36.09037810366329</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>28.10954870223131</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>87.65286791991235</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.73223598371041</v>
       </c>
       <c r="M7">
-        <v>94.42624921198835</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>26.03851937513545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.778122356541948</v>
+        <v>12.3914649038965</v>
       </c>
       <c r="D8">
-        <v>11.86353610468843</v>
+        <v>3.559127552782064</v>
       </c>
       <c r="E8">
-        <v>47.91900851631192</v>
+        <v>11.48276339262779</v>
       </c>
       <c r="F8">
-        <v>61.07031487708614</v>
+        <v>38.6875442984668</v>
       </c>
       <c r="G8">
-        <v>1.711264826691938</v>
+        <v>1.946410496674175</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>47.33285908980957</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>33.60602277480434</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>97.69388042662325</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.901646150197264</v>
       </c>
       <c r="M8">
-        <v>110.8629639935808</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>30.23274657977089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.778122356541948</v>
+        <v>14.57985446844287</v>
       </c>
       <c r="D9">
-        <v>11.86353610468843</v>
+        <v>5.939854245668819</v>
       </c>
       <c r="E9">
-        <v>47.91900851631192</v>
+        <v>13.29713554535261</v>
       </c>
       <c r="F9">
-        <v>61.07031487708614</v>
+        <v>50.91959522425065</v>
       </c>
       <c r="G9">
-        <v>1.711264826691938</v>
+        <v>1.843701392991065</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>47.33285908980957</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>33.60602277480434</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>117.0495394534864</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.356057686147655</v>
       </c>
       <c r="M9">
-        <v>110.8629639935808</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>40.37865505945132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.778122356541948</v>
+        <v>16.581526965036</v>
       </c>
       <c r="D10">
-        <v>11.86353610468843</v>
+        <v>8.342214325632447</v>
       </c>
       <c r="E10">
-        <v>47.91900851631192</v>
+        <v>15.05762789147606</v>
       </c>
       <c r="F10">
-        <v>61.07031487708614</v>
+        <v>63.19682796841879</v>
       </c>
       <c r="G10">
-        <v>1.711264826691938</v>
+        <v>1.744638905597454</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>47.33285908980957</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>33.60602277480434</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>132.4864592717023</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.935627274333465</v>
       </c>
       <c r="M10">
-        <v>110.8629639935808</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>50.5823429461776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.778122356541948</v>
+        <v>17.84884121177434</v>
       </c>
       <c r="D11">
-        <v>11.86353610468843</v>
+        <v>9.873955090615752</v>
       </c>
       <c r="E11">
-        <v>47.91900851631192</v>
+        <v>16.26103700622023</v>
       </c>
       <c r="F11">
-        <v>61.07031487708614</v>
+        <v>70.93456044852566</v>
       </c>
       <c r="G11">
-        <v>1.711264826691938</v>
+        <v>1.682823153213723</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>47.33285908980957</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>33.60602277480434</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>140.7829834103351</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.46856062018982</v>
       </c>
       <c r="M11">
-        <v>110.8629639935808</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>57.02563382902333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.778122356541948</v>
+        <v>18.44006421205083</v>
       </c>
       <c r="D12">
-        <v>11.86353610468843</v>
+        <v>10.6180357796791</v>
       </c>
       <c r="E12">
-        <v>47.91900851631192</v>
+        <v>16.81875254062347</v>
       </c>
       <c r="F12">
-        <v>61.07031487708614</v>
+        <v>74.66159920478269</v>
       </c>
       <c r="G12">
-        <v>1.711264826691938</v>
+        <v>1.653100171966493</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>47.33285908980957</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>33.60602277480434</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>144.4417235707093</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.715387992264956</v>
       </c>
       <c r="M12">
-        <v>110.8629639935808</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>60.13298568797083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.778122356541948</v>
+        <v>18.30477877258991</v>
       </c>
       <c r="D13">
-        <v>11.86353610468843</v>
+        <v>10.44589090395844</v>
       </c>
       <c r="E13">
-        <v>47.91900851631192</v>
+        <v>16.69116089397123</v>
       </c>
       <c r="F13">
-        <v>61.07031487708614</v>
+        <v>73.80129558826198</v>
       </c>
       <c r="G13">
-        <v>1.711264826691938</v>
+        <v>1.659959938575839</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>47.33285908980957</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>33.60602277480434</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>143.615687603355</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.658922453793044</v>
       </c>
       <c r="M13">
-        <v>110.8629639935808</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>59.41549452556962</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.778122356541948</v>
+        <v>17.89432542277095</v>
       </c>
       <c r="D14">
-        <v>11.86353610468843</v>
+        <v>9.930444330631323</v>
       </c>
       <c r="E14">
-        <v>47.91900851631192</v>
+        <v>16.30395596718744</v>
       </c>
       <c r="F14">
-        <v>61.07031487708614</v>
+        <v>71.21827268508179</v>
       </c>
       <c r="G14">
-        <v>1.711264826691938</v>
+        <v>1.68055996127305</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>47.33285908980957</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>33.60602277480434</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>141.0689073569499</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.487556833530807</v>
       </c>
       <c r="M14">
-        <v>110.8629639935808</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>57.26208415784129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.778122356541948</v>
+        <v>17.66151674209661</v>
       </c>
       <c r="D15">
-        <v>11.86353610468843</v>
+        <v>9.642623829787658</v>
       </c>
       <c r="E15">
-        <v>47.91900851631192</v>
+        <v>16.08424902333088</v>
       </c>
       <c r="F15">
-        <v>61.07031487708614</v>
+        <v>69.77144482596501</v>
       </c>
       <c r="G15">
-        <v>1.711264826691938</v>
+        <v>1.692102979742272</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>47.33285908980957</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>33.60602277480434</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>139.59774990875</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.390308201969685</v>
       </c>
       <c r="M15">
-        <v>110.8629639935808</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>56.05642640944241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.778122356541948</v>
+        <v>16.51270280355856</v>
       </c>
       <c r="D16">
-        <v>11.86353610468843</v>
+        <v>8.256016414541998</v>
       </c>
       <c r="E16">
-        <v>47.91900851631192</v>
+        <v>14.98747276842194</v>
       </c>
       <c r="F16">
-        <v>61.07031487708614</v>
+        <v>62.75898521910751</v>
       </c>
       <c r="G16">
-        <v>1.711264826691938</v>
+        <v>1.748144875823322</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>47.33285908980957</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>33.60602277480434</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>131.9868162976969</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.904533026713278</v>
       </c>
       <c r="M16">
-        <v>110.8629639935808</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>50.21805080506516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.778122356541948</v>
+        <v>15.94083787942709</v>
       </c>
       <c r="D17">
-        <v>11.86353610468843</v>
+        <v>7.549847585348371</v>
       </c>
       <c r="E17">
-        <v>47.91900851631192</v>
+        <v>14.45406891324611</v>
       </c>
       <c r="F17">
-        <v>61.07031487708614</v>
+        <v>59.16342667330645</v>
       </c>
       <c r="G17">
-        <v>1.711264826691938</v>
+        <v>1.776989001078254</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>47.33285908980957</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>33.60602277480434</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>127.751536062233</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.686126834345971</v>
       </c>
       <c r="M17">
-        <v>110.8629639935808</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>47.22765522215329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.778122356541948</v>
+        <v>15.63305659034662</v>
       </c>
       <c r="D18">
-        <v>11.86353610468843</v>
+        <v>7.177129863169387</v>
       </c>
       <c r="E18">
-        <v>47.91900851631192</v>
+        <v>14.19082390291817</v>
       </c>
       <c r="F18">
-        <v>61.07031487708614</v>
+        <v>57.26002114461139</v>
       </c>
       <c r="G18">
-        <v>1.711264826691938</v>
+        <v>1.792306552332954</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>47.33285908980957</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>33.60602277480434</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>125.4094496846545</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.608662626018385</v>
       </c>
       <c r="M18">
-        <v>110.8629639935808</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>45.64542453360744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.778122356541948</v>
+        <v>15.53175790937421</v>
       </c>
       <c r="D19">
-        <v>11.86353610468843</v>
+        <v>7.055570993231839</v>
       </c>
       <c r="E19">
-        <v>47.91900851631192</v>
+        <v>14.10438077086913</v>
       </c>
       <c r="F19">
-        <v>61.07031487708614</v>
+        <v>56.63848163787429</v>
       </c>
       <c r="G19">
-        <v>1.711264826691938</v>
+        <v>1.797317322626776</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>47.33285908980957</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>33.60602277480434</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>124.6288603933911</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.583516714346731</v>
       </c>
       <c r="M19">
-        <v>110.8629639935808</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>45.12887975201639</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.778122356541948</v>
+        <v>15.99933527253064</v>
       </c>
       <c r="D20">
-        <v>11.86353610468843</v>
+        <v>7.621264840597481</v>
       </c>
       <c r="E20">
-        <v>47.91900851631192</v>
+        <v>14.50420203582295</v>
       </c>
       <c r="F20">
-        <v>61.07031487708614</v>
+        <v>59.52771876310574</v>
       </c>
       <c r="G20">
-        <v>1.711264826691938</v>
+        <v>1.774061634430624</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>47.33285908980957</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>33.60602277480434</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>128.191680964023</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.701027990896743</v>
       </c>
       <c r="M20">
-        <v>110.8629639935808</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>47.53054098970895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.778122356541948</v>
+        <v>18.01058280872279</v>
       </c>
       <c r="D21">
-        <v>11.86353610468843</v>
+        <v>10.07540004502562</v>
       </c>
       <c r="E21">
-        <v>47.91900851631192</v>
+        <v>16.41364557594713</v>
       </c>
       <c r="F21">
-        <v>61.07031487708614</v>
+        <v>71.94573447645874</v>
       </c>
       <c r="G21">
-        <v>1.711264826691938</v>
+        <v>1.674757526113732</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>47.33285908980957</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>33.60602277480434</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>141.7963933194614</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.536104452057837</v>
       </c>
       <c r="M21">
-        <v>110.8629639935808</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>57.86842935987114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.778122356541948</v>
+        <v>20.47865706524981</v>
       </c>
       <c r="D22">
-        <v>11.86353610468843</v>
+        <v>13.35032663452462</v>
       </c>
       <c r="E22">
-        <v>47.91900851631192</v>
+        <v>18.74173181890543</v>
       </c>
       <c r="F22">
-        <v>61.07031487708614</v>
+        <v>88.14801967632825</v>
       </c>
       <c r="G22">
-        <v>1.711264826691938</v>
+        <v>1.545493267488748</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>47.33285908980957</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>33.60602277480434</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>156.0220980970848</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.56698017088539</v>
       </c>
       <c r="M22">
-        <v>110.8629639935808</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>71.39961373728472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.778122356541948</v>
+        <v>18.88179173333621</v>
       </c>
       <c r="D23">
-        <v>11.86353610468843</v>
+        <v>11.18796239220611</v>
       </c>
       <c r="E23">
-        <v>47.91900851631192</v>
+        <v>17.23529818675058</v>
       </c>
       <c r="F23">
-        <v>61.07031487708614</v>
+        <v>77.5011997315451</v>
       </c>
       <c r="G23">
-        <v>1.711264826691938</v>
+        <v>1.630459118635303</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>47.33285908980957</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>33.60602277480434</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>147.0914156277632</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.899735698933087</v>
       </c>
       <c r="M23">
-        <v>110.8629639935808</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>62.5022006701761</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.778122356541948</v>
+        <v>15.97282584913064</v>
       </c>
       <c r="D24">
-        <v>11.86353610468843</v>
+        <v>7.588877526835012</v>
       </c>
       <c r="E24">
-        <v>47.91900851631192</v>
+        <v>14.48147914791492</v>
       </c>
       <c r="F24">
-        <v>61.07031487708614</v>
+        <v>59.3625319096674</v>
       </c>
       <c r="G24">
-        <v>1.711264826691938</v>
+        <v>1.775388880934776</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>47.33285908980957</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>33.60602277480434</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>127.992415842086</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.694268211963346</v>
       </c>
       <c r="M24">
-        <v>110.8629639935808</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>47.39319605069578</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.778122356541948</v>
+        <v>13.94735761224772</v>
       </c>
       <c r="D25">
-        <v>11.86353610468843</v>
+        <v>5.224856793089491</v>
       </c>
       <c r="E25">
-        <v>47.91900851631192</v>
+        <v>12.76624673746276</v>
       </c>
       <c r="F25">
-        <v>61.07031487708614</v>
+        <v>47.24587169956978</v>
       </c>
       <c r="G25">
-        <v>1.711264826691938</v>
+        <v>1.873876758851432</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>47.33285908980957</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>33.60602277480434</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>111.7547588815113</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.214291860534962</v>
       </c>
       <c r="M25">
-        <v>110.8629639935808</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>37.32948908412643</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_line/loading_percent.xlsx
@@ -420,1128 +420,840 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>12.67312975332768</v>
+        <v>2.685278358652823</v>
       </c>
       <c r="D2">
-        <v>3.850085258424121</v>
+        <v>1.850387163987748</v>
       </c>
       <c r="E2">
-        <v>11.71242462061011</v>
+        <v>30.89392633178621</v>
       </c>
       <c r="F2">
-        <v>40.18143277003837</v>
+        <v>26.26273398367716</v>
       </c>
       <c r="G2">
-        <v>1.933416061040903</v>
+        <v>39.27226784199564</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.08566141346995</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>19.26073346002925</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>100.3636396171009</v>
-      </c>
       <c r="L2">
-        <v>5.954108428209218</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>31.47079293667508</v>
+        <v>20.23165743323396</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
-        <v>11.86939572191759</v>
+        <v>2.546362654473815</v>
       </c>
       <c r="D3">
-        <v>3.034788901143969</v>
+        <v>1.820894293862698</v>
       </c>
       <c r="E3">
-        <v>11.06076776404648</v>
+        <v>28.60790367746758</v>
       </c>
       <c r="F3">
-        <v>35.99329661628088</v>
+        <v>24.40137913916093</v>
       </c>
       <c r="G3">
-        <v>1.970410589379169</v>
+        <v>36.47022730485033</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.585700207438322</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>17.88092654260089</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>92.57139189628984</v>
-      </c>
       <c r="L3">
-        <v>5.809770758194531</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.00096219502456</v>
+        <v>18.77895703120078</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
       <c r="C4">
-        <v>11.39397259301516</v>
+        <v>2.458614719979222</v>
       </c>
       <c r="D4">
-        <v>2.578388114976014</v>
+        <v>1.803454734604878</v>
       </c>
       <c r="E4">
-        <v>10.68113727663041</v>
+        <v>27.14239935668835</v>
       </c>
       <c r="F4">
-        <v>33.6347662945611</v>
+        <v>23.20744265047289</v>
       </c>
       <c r="G4">
-        <v>1.992242929098856</v>
+        <v>34.66627549816486</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9.273805540249931</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>16.99096797979799</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>87.68006460454289</v>
-      </c>
       <c r="L4">
-        <v>5.73263630675498</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.04887592527095</v>
+        <v>17.85286660077071</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
       <c r="C5">
-        <v>11.20371300729829</v>
+        <v>2.422283914241385</v>
       </c>
       <c r="D5">
-        <v>2.418717923680374</v>
+        <v>1.796505057955737</v>
       </c>
       <c r="E5">
-        <v>10.53060484411808</v>
+        <v>26.52918790723303</v>
       </c>
       <c r="F5">
-        <v>32.7464759292701</v>
+        <v>22.74978188795686</v>
       </c>
       <c r="G5">
-        <v>2.000996588408335</v>
+        <v>33.90996985133186</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9.145612030119493</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>16.66188929369407</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>85.65255575557437</v>
-      </c>
       <c r="L5">
-        <v>5.703650560500364</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.32929880700384</v>
+        <v>17.52259382212329</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
       <c r="C6">
-        <v>11.17230692411404</v>
+        <v>2.416218065132687</v>
       </c>
       <c r="D6">
-        <v>2.431403239115609</v>
+        <v>1.795360257416101</v>
       </c>
       <c r="E6">
-        <v>10.50583856041478</v>
+        <v>26.42638544819231</v>
       </c>
       <c r="F6">
-        <v>32.62283184626077</v>
+        <v>22.67315888080258</v>
       </c>
       <c r="G6">
-        <v>2.002443365309827</v>
+        <v>33.78310217554952</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9.124264246333956</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>16.60978719291685</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>85.31658161817649</v>
-      </c>
       <c r="L6">
-        <v>5.698974587521813</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.24261286968332</v>
+        <v>17.46736441706381</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="C7">
-        <v>11.39139371721427</v>
+        <v>2.4581270050356</v>
       </c>
       <c r="D7">
-        <v>2.5759805663994</v>
+        <v>1.803360386525585</v>
       </c>
       <c r="E7">
-        <v>10.67909130739571</v>
+        <v>27.1341947485702</v>
       </c>
       <c r="F7">
-        <v>33.62224664793993</v>
+        <v>23.20131277573689</v>
       </c>
       <c r="G7">
-        <v>1.992361476029086</v>
+        <v>34.65616166480861</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>9.27208089772588</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>16.98597442306247</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>87.65286791991235</v>
-      </c>
       <c r="L7">
-        <v>5.73223598371041</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.03851937513545</v>
+        <v>17.84843858792022</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
       <c r="C8">
-        <v>12.3914649038965</v>
+        <v>2.637913282755827</v>
       </c>
       <c r="D8">
-        <v>3.559127552782064</v>
+        <v>1.840071905960879</v>
       </c>
       <c r="E8">
-        <v>11.48276339262779</v>
+        <v>30.11826758957889</v>
       </c>
       <c r="F8">
-        <v>38.6875442984668</v>
+        <v>25.63236103529321</v>
       </c>
       <c r="G8">
-        <v>1.946410496674175</v>
+        <v>38.32332326093801</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>9.91437166468468</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>18.7937656251656</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>97.69388042662325</v>
-      </c>
       <c r="L8">
-        <v>5.901646150197264</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>30.23274657977089</v>
+        <v>19.73991287654041</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="C9">
-        <v>14.57985446844287</v>
+        <v>2.980337562455605</v>
       </c>
       <c r="D9">
-        <v>5.939854245668819</v>
+        <v>1.91797395419559</v>
       </c>
       <c r="E9">
-        <v>13.29713554535261</v>
+        <v>35.50136867666689</v>
       </c>
       <c r="F9">
-        <v>50.91959522425065</v>
+        <v>29.97621145389174</v>
       </c>
       <c r="G9">
-        <v>1.843701392991065</v>
+        <v>44.8633487976432</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11.13181451005931</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>22.00634825638294</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>117.0495394534864</v>
-      </c>
       <c r="L9">
-        <v>6.356057686147655</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>40.37865505945132</v>
+        <v>23.12510288861143</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="C10">
-        <v>16.581526965036</v>
+        <v>3.23536385284213</v>
       </c>
       <c r="D10">
-        <v>8.342214325632447</v>
+        <v>1.979834280950755</v>
       </c>
       <c r="E10">
-        <v>15.05762789147606</v>
+        <v>39.20564027652701</v>
       </c>
       <c r="F10">
-        <v>63.19682796841879</v>
+        <v>32.91502953371231</v>
       </c>
       <c r="G10">
-        <v>1.744638905597454</v>
+        <v>49.29056581974685</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>12.22361345539401</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>24.1745462445522</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>132.4864592717023</v>
-      </c>
       <c r="L10">
-        <v>6.935627274333465</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>50.5823429461776</v>
+        <v>25.41262207603183</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11">
-        <v>17.84884121177434</v>
+        <v>3.345651455989978</v>
       </c>
       <c r="D11">
-        <v>9.873955090615752</v>
+        <v>2.009273475552821</v>
       </c>
       <c r="E11">
-        <v>16.26103700622023</v>
+        <v>40.84551932566222</v>
       </c>
       <c r="F11">
-        <v>70.93456044852566</v>
+        <v>34.20034531098356</v>
       </c>
       <c r="G11">
-        <v>1.682823153213723</v>
+        <v>51.22789982888057</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12.70186572088498</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>25.12192529179653</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>140.7829834103351</v>
-      </c>
       <c r="L11">
-        <v>7.46856062018982</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>57.02563382902333</v>
+        <v>26.41286921529513</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
       <c r="C12">
-        <v>18.44006421205083</v>
+        <v>3.386599761570609</v>
       </c>
       <c r="D12">
-        <v>10.6180357796791</v>
+        <v>2.02063874628744</v>
       </c>
       <c r="E12">
-        <v>16.81875254062347</v>
+        <v>41.46089353153975</v>
       </c>
       <c r="F12">
-        <v>74.66159920478269</v>
+        <v>34.67996392461013</v>
       </c>
       <c r="G12">
-        <v>1.653100171966493</v>
+        <v>51.95101676803717</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12.88044020919721</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>25.47533018962959</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>144.4417235707093</v>
-      </c>
       <c r="L12">
-        <v>7.715387992264956</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>60.13298568797083</v>
+        <v>26.78611296334595</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
       <c r="C13">
-        <v>18.30477877258991</v>
+        <v>3.377816929926318</v>
       </c>
       <c r="D13">
-        <v>10.44589090395844</v>
+        <v>2.018180814288872</v>
       </c>
       <c r="E13">
-        <v>16.69116089397123</v>
+        <v>41.32859566227316</v>
       </c>
       <c r="F13">
-        <v>73.80129558826198</v>
+        <v>34.57697987685298</v>
       </c>
       <c r="G13">
-        <v>1.659959938575839</v>
+        <v>51.79573909224926</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>12.8420913893193</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>25.39945155518241</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>143.615687603355</v>
-      </c>
       <c r="L13">
-        <v>7.658922453793044</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>59.41549452556962</v>
+        <v>26.70596934337742</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
       <c r="C14">
-        <v>17.89432542277095</v>
+        <v>3.349036586378556</v>
       </c>
       <c r="D14">
-        <v>9.930444330631323</v>
+        <v>2.010203951249291</v>
       </c>
       <c r="E14">
-        <v>16.30395596718744</v>
+        <v>40.89625343119857</v>
       </c>
       <c r="F14">
-        <v>71.21827268508179</v>
+        <v>34.23994420969251</v>
       </c>
       <c r="G14">
-        <v>1.68055996127305</v>
+        <v>51.28759853497914</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12.71660709281672</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>25.15110572299629</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>141.0689073569499</v>
-      </c>
       <c r="L14">
-        <v>7.487556833530807</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>57.26208415784129</v>
+        <v>26.44368529175837</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
       <c r="C15">
-        <v>17.66151674209661</v>
+        <v>3.33130188498651</v>
       </c>
       <c r="D15">
-        <v>9.642623829787658</v>
+        <v>2.005347201710945</v>
       </c>
       <c r="E15">
-        <v>16.08424902333088</v>
+        <v>40.63072914071017</v>
       </c>
       <c r="F15">
-        <v>69.77144482596501</v>
+        <v>34.03258525038613</v>
       </c>
       <c r="G15">
-        <v>1.692102979742272</v>
+        <v>50.97499552373586</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>12.63941880457284</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>24.9982984505569</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>139.59774990875</v>
-      </c>
       <c r="L15">
-        <v>7.390308201969685</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>56.05642640944241</v>
+        <v>26.28231758279841</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
       <c r="C16">
-        <v>16.51270280355856</v>
+        <v>3.228041760465737</v>
       </c>
       <c r="D16">
-        <v>8.256016414541998</v>
+        <v>1.977938966271077</v>
       </c>
       <c r="E16">
-        <v>14.98747276842194</v>
+        <v>39.0976335267199</v>
       </c>
       <c r="F16">
-        <v>62.75898521910751</v>
+        <v>32.8300191411041</v>
       </c>
       <c r="G16">
-        <v>1.748144875823322</v>
+        <v>49.16245644254598</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>12.19199771975822</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>24.1118700679809</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16">
-        <v>131.9868162976969</v>
-      </c>
       <c r="L16">
-        <v>6.904533026713278</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>50.21805080506516</v>
+        <v>25.34646421757913</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
       <c r="C17">
-        <v>15.94083787942709</v>
+        <v>3.163234094135627</v>
       </c>
       <c r="D17">
-        <v>7.549847585348371</v>
+        <v>1.961477392595148</v>
       </c>
       <c r="E17">
-        <v>14.45406891324611</v>
+        <v>38.14614089938626</v>
       </c>
       <c r="F17">
-        <v>59.16342667330645</v>
+        <v>32.07928429853246</v>
       </c>
       <c r="G17">
-        <v>1.776989001078254</v>
+        <v>48.03123610009592</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>11.91288169579539</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>23.55827083275217</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>127.751536062233</v>
-      </c>
       <c r="L17">
-        <v>6.686126834345971</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>47.22765522215329</v>
+        <v>24.76219712240859</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
       <c r="C18">
-        <v>15.63305659034662</v>
+        <v>3.125419015942582</v>
       </c>
       <c r="D18">
-        <v>7.177129863169387</v>
+        <v>1.95212921016207</v>
       </c>
       <c r="E18">
-        <v>14.19082390291817</v>
+        <v>37.59455151581252</v>
       </c>
       <c r="F18">
-        <v>57.26002114461139</v>
+        <v>31.64260633569217</v>
       </c>
       <c r="G18">
-        <v>1.792306552332954</v>
+        <v>47.37334074383301</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>11.75060024718947</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>23.23617261700506</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>125.4094496846545</v>
-      </c>
       <c r="L18">
-        <v>6.608662626018385</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>45.64542453360744</v>
+        <v>24.42232515686596</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
       <c r="C19">
-        <v>15.53175790937421</v>
+        <v>3.112522604412747</v>
       </c>
       <c r="D19">
-        <v>7.055570993231839</v>
+        <v>1.948983865542943</v>
       </c>
       <c r="E19">
-        <v>14.10438077086913</v>
+        <v>37.40702657875724</v>
       </c>
       <c r="F19">
-        <v>56.63848163787429</v>
+        <v>31.49390858741522</v>
       </c>
       <c r="G19">
-        <v>1.797317322626776</v>
+        <v>47.14932957588417</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>11.69535217303854</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>23.12647598929437</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>124.6288603933911</v>
-      </c>
       <c r="L19">
-        <v>6.583516714346731</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>45.12887975201639</v>
+        <v>24.30658695494585</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
       <c r="C20">
-        <v>15.99933527253064</v>
+        <v>3.170188753755069</v>
       </c>
       <c r="D20">
-        <v>7.621264840597481</v>
+        <v>1.963217125356537</v>
       </c>
       <c r="E20">
-        <v>14.50420203582295</v>
+        <v>38.24786958288865</v>
       </c>
       <c r="F20">
-        <v>59.52771876310574</v>
+        <v>32.15970374355227</v>
       </c>
       <c r="G20">
-        <v>1.774061634430624</v>
+        <v>48.15240304515059</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>11.94277349402196</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>23.61758181282625</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>128.191680964023</v>
-      </c>
       <c r="L20">
-        <v>6.701027990896743</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>47.53054098970895</v>
+        <v>24.82478651327671</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
       <c r="C21">
-        <v>18.01058280872279</v>
+        <v>3.357512126763605</v>
       </c>
       <c r="D21">
-        <v>10.07540004502562</v>
+        <v>2.012540777719984</v>
       </c>
       <c r="E21">
-        <v>16.41364557594713</v>
+        <v>41.02338737595953</v>
       </c>
       <c r="F21">
-        <v>71.94573447645874</v>
+        <v>34.33912978992446</v>
       </c>
       <c r="G21">
-        <v>1.674757526113732</v>
+        <v>51.43713252563278</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>12.75353247372739</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>25.22419385307163</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21">
-        <v>141.7963933194614</v>
-      </c>
       <c r="L21">
-        <v>7.536104452057837</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>57.86842935987114</v>
+        <v>26.52087213710694</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
       <c r="C22">
-        <v>20.47865706524981</v>
+        <v>3.475191472070886</v>
       </c>
       <c r="D22">
-        <v>13.35032663452462</v>
+        <v>2.046062090769575</v>
       </c>
       <c r="E22">
-        <v>18.74173181890543</v>
+        <v>42.80515257819287</v>
       </c>
       <c r="F22">
-        <v>88.14801967632825</v>
+        <v>35.72229164629732</v>
       </c>
       <c r="G22">
-        <v>1.545493267488748</v>
+        <v>53.52292809722707</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>13.26873746338597</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>26.24318281997415</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22">
-        <v>156.0220980970848</v>
-      </c>
       <c r="L22">
-        <v>8.56698017088539</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>71.39961373728472</v>
+        <v>27.59729450462191</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
       <c r="C23">
-        <v>18.88179173333621</v>
+        <v>3.412815265986295</v>
       </c>
       <c r="D23">
-        <v>11.18796239220611</v>
+        <v>2.028041726021047</v>
       </c>
       <c r="E23">
-        <v>17.23529818675058</v>
+        <v>41.85680586632161</v>
       </c>
       <c r="F23">
-        <v>77.5011997315451</v>
+        <v>34.98772773638157</v>
       </c>
       <c r="G23">
-        <v>1.630459118635303</v>
+        <v>52.41508977596462</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>12.99506102151875</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>25.70207576503676</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23">
-        <v>147.0914156277632</v>
-      </c>
       <c r="L23">
-        <v>7.899735698933087</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>62.5022006701761</v>
+        <v>27.02562128674751</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
       <c r="C24">
-        <v>15.97282584913064</v>
+        <v>3.167046285453749</v>
       </c>
       <c r="D24">
-        <v>7.588877526835012</v>
+        <v>1.962430233708821</v>
       </c>
       <c r="E24">
-        <v>14.48147914791492</v>
+        <v>38.20189232479303</v>
       </c>
       <c r="F24">
-        <v>59.3625319096674</v>
+        <v>32.1233619289607</v>
       </c>
       <c r="G24">
-        <v>1.775388880934776</v>
+        <v>48.09764699759553</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>11.92926507072096</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>23.59077925658415</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24">
-        <v>127.992415842086</v>
-      </c>
       <c r="L24">
-        <v>6.694268211963346</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>47.39319605069578</v>
+        <v>24.79650223262196</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
       <c r="C25">
-        <v>13.94735761224772</v>
+        <v>2.882213543806225</v>
       </c>
       <c r="D25">
-        <v>5.224856793089491</v>
+        <v>1.896172267419254</v>
       </c>
       <c r="E25">
-        <v>12.76624673746276</v>
+        <v>34.09190789028899</v>
       </c>
       <c r="F25">
-        <v>47.24587169956978</v>
+        <v>28.84640518733042</v>
       </c>
       <c r="G25">
-        <v>1.873876758851432</v>
+        <v>43.16202877216128</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10.80647886894762</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>21.17183243716253</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25">
-        <v>111.7547588815113</v>
-      </c>
       <c r="L25">
-        <v>6.214291860534962</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>37.32948908412643</v>
+        <v>22.24526945537771</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.685278358652823</v>
+        <v>2.834502210481434</v>
       </c>
       <c r="D2">
-        <v>1.850387163987748</v>
+        <v>2.921953217054471</v>
       </c>
       <c r="E2">
-        <v>30.89392633178621</v>
+        <v>16.70273952699619</v>
       </c>
       <c r="F2">
-        <v>26.26273398367716</v>
+        <v>20.05797417919059</v>
       </c>
       <c r="G2">
-        <v>39.27226784199564</v>
+        <v>24.47440444073666</v>
       </c>
       <c r="H2">
-        <v>10.08566141346995</v>
+        <v>11.41363832979199</v>
       </c>
       <c r="I2">
-        <v>19.26073346002925</v>
+        <v>16.38611221003454</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.23165743323396</v>
+        <v>17.07954586972049</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,25 +456,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.546362654473815</v>
+        <v>2.808503672603291</v>
       </c>
       <c r="D3">
-        <v>1.820894293862698</v>
+        <v>2.921686010819879</v>
       </c>
       <c r="E3">
-        <v>28.60790367746758</v>
+        <v>15.73979365400252</v>
       </c>
       <c r="F3">
-        <v>24.40137913916093</v>
+        <v>19.55191849635494</v>
       </c>
       <c r="G3">
-        <v>36.47022730485033</v>
+        <v>23.37815233946197</v>
       </c>
       <c r="H3">
-        <v>9.585700207438322</v>
+        <v>11.34212789423988</v>
       </c>
       <c r="I3">
-        <v>17.88092654260089</v>
+        <v>16.0983595678437</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.77895703120078</v>
+        <v>16.76986830385365</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,25 +491,25 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.458614719979222</v>
+        <v>2.7931115702881</v>
       </c>
       <c r="D4">
-        <v>1.803454734604878</v>
+        <v>2.921759718578869</v>
       </c>
       <c r="E4">
-        <v>27.14239935668835</v>
+        <v>15.12273035622041</v>
       </c>
       <c r="F4">
-        <v>23.20744265047289</v>
+        <v>19.2410383337258</v>
       </c>
       <c r="G4">
-        <v>34.66627549816486</v>
+        <v>22.6858624696143</v>
       </c>
       <c r="H4">
-        <v>9.273805540249931</v>
+        <v>11.30089585243095</v>
       </c>
       <c r="I4">
-        <v>16.99096797979799</v>
+        <v>15.9241860918019</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.85286660077071</v>
+        <v>16.58213466568272</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.422283914241385</v>
+        <v>2.786989497204141</v>
       </c>
       <c r="D5">
-        <v>1.796505057955737</v>
+        <v>2.921849622287121</v>
       </c>
       <c r="E5">
-        <v>26.52918790723303</v>
+        <v>14.86504626354034</v>
       </c>
       <c r="F5">
-        <v>22.74978188795686</v>
+        <v>19.11452490033622</v>
       </c>
       <c r="G5">
-        <v>33.90996985133186</v>
+        <v>22.39939137988487</v>
       </c>
       <c r="H5">
-        <v>9.145612030119493</v>
+        <v>11.2847801259625</v>
       </c>
       <c r="I5">
-        <v>16.66188929369407</v>
+        <v>15.85394126840655</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.52259382212329</v>
+        <v>16.50634811581733</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,25 +561,25 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.416218065132687</v>
+        <v>2.785982202230645</v>
       </c>
       <c r="D6">
-        <v>1.795360257416101</v>
+        <v>2.921868168734099</v>
       </c>
       <c r="E6">
-        <v>26.42638544819231</v>
+        <v>14.82189077943927</v>
       </c>
       <c r="F6">
-        <v>22.67315888080258</v>
+        <v>19.09353423208212</v>
       </c>
       <c r="G6">
-        <v>33.78310217554952</v>
+        <v>22.35157473898734</v>
       </c>
       <c r="H6">
-        <v>9.124264246333956</v>
+        <v>11.28214597632841</v>
       </c>
       <c r="I6">
-        <v>16.60978719291685</v>
+        <v>15.84232435492566</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.46736441706381</v>
+        <v>16.49381030925658</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,25 +596,25 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.4581270050356</v>
+        <v>2.793028388484828</v>
       </c>
       <c r="D7">
-        <v>1.803360386525585</v>
+        <v>2.921760688527621</v>
       </c>
       <c r="E7">
-        <v>27.1341947485702</v>
+        <v>15.11927995754612</v>
       </c>
       <c r="F7">
-        <v>23.20131277573689</v>
+        <v>19.23933114346435</v>
       </c>
       <c r="G7">
-        <v>34.65616166480861</v>
+        <v>22.68201600144656</v>
       </c>
       <c r="H7">
-        <v>9.27208089772588</v>
+        <v>11.30067571247398</v>
       </c>
       <c r="I7">
-        <v>16.98597442306247</v>
+        <v>15.92323564679228</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.84843858792022</v>
+        <v>16.58110953531927</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,25 +631,25 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>2.637913282755827</v>
+        <v>2.825423502009746</v>
       </c>
       <c r="D8">
-        <v>1.840071905960879</v>
+        <v>2.92181178128794</v>
       </c>
       <c r="E8">
-        <v>30.11826758957889</v>
+        <v>16.37621570653947</v>
       </c>
       <c r="F8">
-        <v>25.63236103529321</v>
+        <v>19.88364487339597</v>
       </c>
       <c r="G8">
-        <v>38.32332326093801</v>
+        <v>24.10066096499336</v>
       </c>
       <c r="H8">
-        <v>9.91437166468468</v>
+        <v>11.38843486064294</v>
       </c>
       <c r="I8">
-        <v>18.7937656251656</v>
+        <v>16.28643572825291</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.73991287654041</v>
+        <v>16.97233525539113</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,25 +666,25 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>2.980337562455605</v>
+        <v>2.893173323068878</v>
       </c>
       <c r="D9">
-        <v>1.91797395419559</v>
+        <v>2.923795484154855</v>
       </c>
       <c r="E9">
-        <v>35.50136867666689</v>
+        <v>18.77940941808601</v>
       </c>
       <c r="F9">
-        <v>29.97621145389174</v>
+        <v>21.13692313316225</v>
       </c>
       <c r="G9">
-        <v>44.8633487976432</v>
+        <v>26.71277809985449</v>
       </c>
       <c r="H9">
-        <v>11.13181451005931</v>
+        <v>11.58109830804086</v>
       </c>
       <c r="I9">
-        <v>22.00634825638294</v>
+        <v>17.01409898298126</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.12510288861143</v>
+        <v>17.75380677738752</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,25 +701,25 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>3.23536385284213</v>
+        <v>2.945095738912458</v>
       </c>
       <c r="D10">
-        <v>1.979834280950755</v>
+        <v>2.926397385555782</v>
       </c>
       <c r="E10">
-        <v>39.20564027652701</v>
+        <v>20.45630198673855</v>
       </c>
       <c r="F10">
-        <v>32.91502953371231</v>
+        <v>22.04018808408803</v>
       </c>
       <c r="G10">
-        <v>49.29056581974685</v>
+        <v>28.50850979450649</v>
       </c>
       <c r="H10">
-        <v>12.22361345539401</v>
+        <v>11.73422960676114</v>
       </c>
       <c r="I10">
-        <v>24.1745462445522</v>
+        <v>17.55220620562617</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.41262207603183</v>
+        <v>18.33027937365811</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,25 +736,25 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>3.345651455989978</v>
+        <v>2.969088735992313</v>
       </c>
       <c r="D11">
-        <v>2.009273475552821</v>
+        <v>2.927828707778979</v>
       </c>
       <c r="E11">
-        <v>40.84551932566222</v>
+        <v>21.17649355917161</v>
       </c>
       <c r="F11">
-        <v>34.20034531098356</v>
+        <v>22.44514234115035</v>
       </c>
       <c r="G11">
-        <v>51.22789982888057</v>
+        <v>29.29539143617668</v>
       </c>
       <c r="H11">
-        <v>12.70186572088498</v>
+        <v>11.80618519361414</v>
       </c>
       <c r="I11">
-        <v>25.12192529179653</v>
+        <v>17.79655404344216</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>26.41286921529513</v>
+        <v>18.59173846750069</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,25 +771,25 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>3.386599761570609</v>
+        <v>2.978219953219948</v>
       </c>
       <c r="D12">
-        <v>2.02063874628744</v>
+        <v>2.928406236134329</v>
       </c>
       <c r="E12">
-        <v>41.46089353153975</v>
+        <v>21.44311882955934</v>
       </c>
       <c r="F12">
-        <v>34.67996392461013</v>
+        <v>22.59747003669439</v>
       </c>
       <c r="G12">
-        <v>51.95101676803717</v>
+        <v>29.58883096260398</v>
       </c>
       <c r="H12">
-        <v>12.88044020919721</v>
+        <v>11.83374313777814</v>
       </c>
       <c r="I12">
-        <v>25.47533018962959</v>
+        <v>17.88892260391505</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>26.78611296334595</v>
+        <v>18.69053090742767</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,25 +806,25 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>3.377816929926318</v>
+        <v>2.976251483190407</v>
       </c>
       <c r="D13">
-        <v>2.018180814288872</v>
+        <v>2.928280277094802</v>
       </c>
       <c r="E13">
-        <v>41.32859566227316</v>
+        <v>21.38596685349935</v>
       </c>
       <c r="F13">
-        <v>34.57697987685298</v>
+        <v>22.56471137841231</v>
       </c>
       <c r="G13">
-        <v>51.79573909224926</v>
+        <v>29.52583837487109</v>
       </c>
       <c r="H13">
-        <v>12.8420913893193</v>
+        <v>11.82779458430778</v>
       </c>
       <c r="I13">
-        <v>25.39945155518241</v>
+        <v>17.86903803392806</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>26.70596934337742</v>
+        <v>18.66926542142356</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,25 +841,25 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>3.349036586378556</v>
+        <v>2.969839099306019</v>
       </c>
       <c r="D14">
-        <v>2.010203951249291</v>
+        <v>2.927875510157183</v>
       </c>
       <c r="E14">
-        <v>40.89625343119857</v>
+        <v>21.198550945294</v>
       </c>
       <c r="F14">
-        <v>34.23994420969251</v>
+        <v>22.45769576608214</v>
       </c>
       <c r="G14">
-        <v>51.28759853497914</v>
+        <v>29.3196249215489</v>
       </c>
       <c r="H14">
-        <v>12.71660709281672</v>
+        <v>11.80844630836659</v>
       </c>
       <c r="I14">
-        <v>25.15110572299629</v>
+        <v>17.80415702362779</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>26.44368529175837</v>
+        <v>18.59987109836102</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,25 +876,25 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>3.33130188498651</v>
+        <v>2.965917026405712</v>
       </c>
       <c r="D15">
-        <v>2.005347201710945</v>
+        <v>2.927632201063894</v>
       </c>
       <c r="E15">
-        <v>40.63072914071017</v>
+        <v>21.08296049945112</v>
       </c>
       <c r="F15">
-        <v>34.03258525038613</v>
+        <v>22.39200815117388</v>
       </c>
       <c r="G15">
-        <v>50.97499552373586</v>
+        <v>29.19271661739474</v>
       </c>
       <c r="H15">
-        <v>12.63941880457284</v>
+        <v>11.79663468415417</v>
       </c>
       <c r="I15">
-        <v>24.9982984505569</v>
+        <v>17.76439178787495</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>26.28231758279841</v>
+        <v>18.55733387493649</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,25 +911,25 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>3.228041760465737</v>
+        <v>2.943534559880374</v>
       </c>
       <c r="D16">
-        <v>1.977938966271077</v>
+        <v>2.926308821137681</v>
       </c>
       <c r="E16">
-        <v>39.0976335267199</v>
+        <v>20.40838086130207</v>
       </c>
       <c r="F16">
-        <v>32.8300191411041</v>
+        <v>22.0135893548844</v>
       </c>
       <c r="G16">
-        <v>49.16245644254598</v>
+        <v>28.45646176678647</v>
       </c>
       <c r="H16">
-        <v>12.19199771975822</v>
+        <v>11.72957162029899</v>
       </c>
       <c r="I16">
-        <v>24.1118700679809</v>
+        <v>17.53622022891922</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.34646421757913</v>
+        <v>18.3131676816905</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,25 +946,25 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>3.163234094135627</v>
+        <v>2.929893489230276</v>
       </c>
       <c r="D17">
-        <v>1.961477392595148</v>
+        <v>2.925560342612827</v>
       </c>
       <c r="E17">
-        <v>38.14614089938626</v>
+        <v>19.98365333694488</v>
       </c>
       <c r="F17">
-        <v>32.07928429853246</v>
+        <v>21.77979758343483</v>
       </c>
       <c r="G17">
-        <v>48.03123610009592</v>
+        <v>27.99693971637658</v>
       </c>
       <c r="H17">
-        <v>11.91288169579539</v>
+        <v>11.68900436561274</v>
       </c>
       <c r="I17">
-        <v>23.55827083275217</v>
+        <v>17.39606113090698</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.76219712240859</v>
+        <v>18.16310401839636</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,25 +981,25 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>3.125419015942582</v>
+        <v>2.922083121824703</v>
       </c>
       <c r="D18">
-        <v>1.95212921016207</v>
+        <v>2.925153159089977</v>
       </c>
       <c r="E18">
-        <v>37.59455151581252</v>
+        <v>19.73534616995748</v>
       </c>
       <c r="F18">
-        <v>31.64260633569217</v>
+        <v>21.64477615587814</v>
       </c>
       <c r="G18">
-        <v>47.37334074383301</v>
+        <v>27.72982129512861</v>
       </c>
       <c r="H18">
-        <v>11.75060024718947</v>
+        <v>11.66588845484039</v>
       </c>
       <c r="I18">
-        <v>23.23617261700506</v>
+        <v>17.31540951244098</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.42232515686596</v>
+        <v>18.07672379090912</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,25 +1016,25 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>3.112522604412747</v>
+        <v>2.91944502870715</v>
       </c>
       <c r="D19">
-        <v>1.948983865542943</v>
+        <v>2.925019302266265</v>
       </c>
       <c r="E19">
-        <v>37.40702657875724</v>
+        <v>19.65058295046881</v>
       </c>
       <c r="F19">
-        <v>31.49390858741522</v>
+        <v>21.59897088845626</v>
       </c>
       <c r="G19">
-        <v>47.14932957588417</v>
+        <v>27.63890367331788</v>
       </c>
       <c r="H19">
-        <v>11.69535217303854</v>
+        <v>11.6580997302975</v>
       </c>
       <c r="I19">
-        <v>23.12647598929437</v>
+        <v>17.28809914378474</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.30658695494585</v>
+        <v>18.04746857153799</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,25 +1051,25 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>3.170188753755069</v>
+        <v>2.931341976901226</v>
       </c>
       <c r="D20">
-        <v>1.963217125356537</v>
+        <v>2.925637606425362</v>
       </c>
       <c r="E20">
-        <v>38.24786958288865</v>
+        <v>20.02928160063101</v>
       </c>
       <c r="F20">
-        <v>32.15970374355227</v>
+        <v>21.80474333456367</v>
       </c>
       <c r="G20">
-        <v>48.15240304515059</v>
+        <v>28.04614951869005</v>
       </c>
       <c r="H20">
-        <v>11.94277349402196</v>
+        <v>11.69330047348332</v>
       </c>
       <c r="I20">
-        <v>23.61758181282625</v>
+        <v>17.41098573139984</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.82478651327671</v>
+        <v>18.17908631470509</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,25 +1086,25 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>3.357512126763605</v>
+        <v>2.971721398969819</v>
       </c>
       <c r="D21">
-        <v>2.012540777719984</v>
+        <v>2.927993436917682</v>
       </c>
       <c r="E21">
-        <v>41.02338737595953</v>
+        <v>21.2537646947785</v>
       </c>
       <c r="F21">
-        <v>34.33912978992446</v>
+        <v>22.48915776837043</v>
       </c>
       <c r="G21">
-        <v>51.43713252563278</v>
+        <v>29.38031949041873</v>
       </c>
       <c r="H21">
-        <v>12.75353247372739</v>
+        <v>11.81412111816856</v>
       </c>
       <c r="I21">
-        <v>25.22419385307163</v>
+        <v>17.82321926515934</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>26.52087213710694</v>
+        <v>18.62026057364823</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,25 +1121,25 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>3.475191472070886</v>
+        <v>2.99837368311897</v>
       </c>
       <c r="D22">
-        <v>2.046062090769575</v>
+        <v>2.929740081761629</v>
       </c>
       <c r="E22">
-        <v>42.80515257819287</v>
+        <v>22.01852129484445</v>
       </c>
       <c r="F22">
-        <v>35.72229164629732</v>
+        <v>22.93045133276988</v>
       </c>
       <c r="G22">
-        <v>53.52292809722707</v>
+        <v>30.2257616176663</v>
       </c>
       <c r="H22">
-        <v>13.26873746338597</v>
+        <v>11.89488114835647</v>
       </c>
       <c r="I22">
-        <v>26.24318281997415</v>
+        <v>18.09165908564866</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>27.59729450462191</v>
+        <v>18.90728699567929</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,25 +1156,25 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>3.412815265986295</v>
+        <v>2.984127550908814</v>
       </c>
       <c r="D23">
-        <v>2.028041726021047</v>
+        <v>2.928788961441041</v>
       </c>
       <c r="E23">
-        <v>41.85680586632161</v>
+        <v>21.61359423408222</v>
       </c>
       <c r="F23">
-        <v>34.98772773638157</v>
+        <v>22.69552572357222</v>
       </c>
       <c r="G23">
-        <v>52.41508977596462</v>
+        <v>29.77702354447645</v>
       </c>
       <c r="H23">
-        <v>12.99506102151875</v>
+        <v>11.85162039647263</v>
       </c>
       <c r="I23">
-        <v>25.70207576503676</v>
+        <v>17.94850833355133</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>27.02562128674751</v>
+        <v>18.75424828378111</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,25 +1191,25 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>3.167046285453749</v>
+        <v>2.930687015147872</v>
       </c>
       <c r="D24">
-        <v>1.962430233708821</v>
+        <v>2.925602603432695</v>
       </c>
       <c r="E24">
-        <v>38.20189232479303</v>
+        <v>20.00866591621071</v>
       </c>
       <c r="F24">
-        <v>32.1233619289607</v>
+        <v>21.7934672522137</v>
       </c>
       <c r="G24">
-        <v>48.09764699759553</v>
+        <v>28.02391088581592</v>
       </c>
       <c r="H24">
-        <v>11.92926507072096</v>
+        <v>11.69135755756652</v>
       </c>
       <c r="I24">
-        <v>23.59077925658415</v>
+        <v>17.40423853716604</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.79650223262196</v>
+        <v>18.17186104263799</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,25 +1226,25 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>2.882213543806225</v>
+        <v>2.874436613818316</v>
       </c>
       <c r="D25">
-        <v>1.896172267419254</v>
+        <v>2.923057563585532</v>
       </c>
       <c r="E25">
-        <v>34.09190789028899</v>
+        <v>18.12383623505978</v>
       </c>
       <c r="F25">
-        <v>28.84640518733042</v>
+        <v>20.80018057611107</v>
       </c>
       <c r="G25">
-        <v>43.16202877216128</v>
+        <v>26.02655440719849</v>
       </c>
       <c r="H25">
-        <v>10.80647886894762</v>
+        <v>11.5268708537711</v>
       </c>
       <c r="I25">
-        <v>21.17183243716253</v>
+        <v>16.81621279524715</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.24526945537771</v>
+        <v>17.54153717719697</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.834502210481434</v>
+        <v>2.685278358652787</v>
       </c>
       <c r="D2">
-        <v>2.921953217054471</v>
+        <v>1.850387163987805</v>
       </c>
       <c r="E2">
-        <v>16.70273952699619</v>
+        <v>30.89392633178616</v>
       </c>
       <c r="F2">
-        <v>20.05797417919059</v>
+        <v>26.26273398367714</v>
       </c>
       <c r="G2">
-        <v>24.47440444073666</v>
+        <v>39.27226784199563</v>
       </c>
       <c r="H2">
-        <v>11.41363832979199</v>
+        <v>10.08566141346997</v>
       </c>
       <c r="I2">
-        <v>16.38611221003454</v>
+        <v>19.26073346002923</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.07954586972049</v>
+        <v>20.23165743323394</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,25 +456,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.808503672603291</v>
+        <v>2.546362654473815</v>
       </c>
       <c r="D3">
-        <v>2.921686010819879</v>
+        <v>1.820894293862637</v>
       </c>
       <c r="E3">
-        <v>15.73979365400252</v>
+        <v>28.6079036774675</v>
       </c>
       <c r="F3">
-        <v>19.55191849635494</v>
+        <v>24.40137913916089</v>
       </c>
       <c r="G3">
-        <v>23.37815233946197</v>
+        <v>36.47022730485021</v>
       </c>
       <c r="H3">
-        <v>11.34212789423988</v>
+        <v>9.585700207438352</v>
       </c>
       <c r="I3">
-        <v>16.0983595678437</v>
+        <v>17.88092654260083</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.76986830385365</v>
+        <v>18.77895703120073</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,25 +491,25 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.7931115702881</v>
+        <v>2.458614719979298</v>
       </c>
       <c r="D4">
-        <v>2.921759718578869</v>
+        <v>1.803454734605005</v>
       </c>
       <c r="E4">
-        <v>15.12273035622041</v>
+        <v>27.14239935668828</v>
       </c>
       <c r="F4">
-        <v>19.2410383337258</v>
+        <v>23.20744265047291</v>
       </c>
       <c r="G4">
-        <v>22.6858624696143</v>
+        <v>34.6662754981649</v>
       </c>
       <c r="H4">
-        <v>11.30089585243095</v>
+        <v>9.273805540249947</v>
       </c>
       <c r="I4">
-        <v>15.9241860918019</v>
+        <v>16.99096797979799</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.58213466568272</v>
+        <v>17.85286660077072</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.786989497204141</v>
+        <v>2.422283914241441</v>
       </c>
       <c r="D5">
-        <v>2.921849622287121</v>
+        <v>1.796505057955675</v>
       </c>
       <c r="E5">
-        <v>14.86504626354034</v>
+        <v>26.52918790723291</v>
       </c>
       <c r="F5">
-        <v>19.11452490033622</v>
+        <v>22.74978188795686</v>
       </c>
       <c r="G5">
-        <v>22.39939137988487</v>
+        <v>33.9099698513318</v>
       </c>
       <c r="H5">
-        <v>11.2847801259625</v>
+        <v>9.14561203011953</v>
       </c>
       <c r="I5">
-        <v>15.85394126840655</v>
+        <v>16.66188929369408</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.50634811581733</v>
+        <v>17.5225938221233</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,25 +561,25 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.785982202230645</v>
+        <v>2.416218065132576</v>
       </c>
       <c r="D6">
-        <v>2.921868168734099</v>
+        <v>1.795360257416169</v>
       </c>
       <c r="E6">
-        <v>14.82189077943927</v>
+        <v>26.42638544819233</v>
       </c>
       <c r="F6">
-        <v>19.09353423208212</v>
+        <v>22.6731588808026</v>
       </c>
       <c r="G6">
-        <v>22.35157473898734</v>
+        <v>33.78310217554962</v>
       </c>
       <c r="H6">
-        <v>11.28214597632841</v>
+        <v>9.124264246333956</v>
       </c>
       <c r="I6">
-        <v>15.84232435492566</v>
+        <v>16.60978719291685</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.49381030925658</v>
+        <v>17.46736441706382</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,25 +596,25 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.793028388484828</v>
+        <v>2.458127005035591</v>
       </c>
       <c r="D7">
-        <v>2.921760688527621</v>
+        <v>1.803360386525579</v>
       </c>
       <c r="E7">
-        <v>15.11927995754612</v>
+        <v>27.13419474857012</v>
       </c>
       <c r="F7">
-        <v>19.23933114346435</v>
+        <v>23.2013127757369</v>
       </c>
       <c r="G7">
-        <v>22.68201600144656</v>
+        <v>34.65616166480876</v>
       </c>
       <c r="H7">
-        <v>11.30067571247398</v>
+        <v>9.272080897725891</v>
       </c>
       <c r="I7">
-        <v>15.92323564679228</v>
+        <v>16.98597442306254</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.58110953531927</v>
+        <v>17.84843858792023</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,25 +631,25 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>2.825423502009746</v>
+        <v>2.637913282755835</v>
       </c>
       <c r="D8">
-        <v>2.92181178128794</v>
+        <v>1.840071905960886</v>
       </c>
       <c r="E8">
-        <v>16.37621570653947</v>
+        <v>30.11826758957895</v>
       </c>
       <c r="F8">
-        <v>19.88364487339597</v>
+        <v>25.6323610352932</v>
       </c>
       <c r="G8">
-        <v>24.10066096499336</v>
+        <v>38.32332326093801</v>
       </c>
       <c r="H8">
-        <v>11.38843486064294</v>
+        <v>9.914371664684699</v>
       </c>
       <c r="I8">
-        <v>16.28643572825291</v>
+        <v>18.7937656251656</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.97233525539113</v>
+        <v>19.7399128765404</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,25 +666,25 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>2.893173323068878</v>
+        <v>2.980337562455575</v>
       </c>
       <c r="D9">
-        <v>2.923795484154855</v>
+        <v>1.917973954195582</v>
       </c>
       <c r="E9">
-        <v>18.77940941808601</v>
+        <v>35.50136867666692</v>
       </c>
       <c r="F9">
-        <v>21.13692313316225</v>
+        <v>29.97621145389181</v>
       </c>
       <c r="G9">
-        <v>26.71277809985449</v>
+        <v>44.86334879764333</v>
       </c>
       <c r="H9">
-        <v>11.58109830804086</v>
+        <v>11.13181451005932</v>
       </c>
       <c r="I9">
-        <v>17.01409898298126</v>
+        <v>22.006348256383</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.75380677738752</v>
+        <v>23.1251028886115</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,25 +701,25 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2.945095738912458</v>
+        <v>3.23536385284216</v>
       </c>
       <c r="D10">
-        <v>2.926397385555782</v>
+        <v>1.979834280950805</v>
       </c>
       <c r="E10">
-        <v>20.45630198673855</v>
+        <v>39.20564027652708</v>
       </c>
       <c r="F10">
-        <v>22.04018808408803</v>
+        <v>32.91502953371228</v>
       </c>
       <c r="G10">
-        <v>28.50850979450649</v>
+        <v>49.29056581974694</v>
       </c>
       <c r="H10">
-        <v>11.73422960676114</v>
+        <v>12.223613455394</v>
       </c>
       <c r="I10">
-        <v>17.55220620562617</v>
+        <v>24.1745462445522</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.33027937365811</v>
+        <v>25.41262207603184</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,25 +736,25 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.969088735992313</v>
+        <v>3.345651455989929</v>
       </c>
       <c r="D11">
-        <v>2.927828707778979</v>
+        <v>2.009273475552718</v>
       </c>
       <c r="E11">
-        <v>21.17649355917161</v>
+        <v>40.84551932566234</v>
       </c>
       <c r="F11">
-        <v>22.44514234115035</v>
+        <v>34.20034531098366</v>
       </c>
       <c r="G11">
-        <v>29.29539143617668</v>
+        <v>51.22789982888072</v>
       </c>
       <c r="H11">
-        <v>11.80618519361414</v>
+        <v>12.701865720885</v>
       </c>
       <c r="I11">
-        <v>17.79655404344216</v>
+        <v>25.12192529179658</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.59173846750069</v>
+        <v>26.41286921529518</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,25 +771,25 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.978219953219948</v>
+        <v>3.386599761570602</v>
       </c>
       <c r="D12">
-        <v>2.928406236134329</v>
+        <v>2.020638746287457</v>
       </c>
       <c r="E12">
-        <v>21.44311882955934</v>
+        <v>41.46089353153981</v>
       </c>
       <c r="F12">
-        <v>22.59747003669439</v>
+        <v>34.6799639246102</v>
       </c>
       <c r="G12">
-        <v>29.58883096260398</v>
+        <v>51.95101676803731</v>
       </c>
       <c r="H12">
-        <v>11.83374313777814</v>
+        <v>12.88044020919723</v>
       </c>
       <c r="I12">
-        <v>17.88892260391505</v>
+        <v>25.47533018962964</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.69053090742767</v>
+        <v>26.786112963346</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,25 +806,25 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>2.976251483190407</v>
+        <v>3.377816929926341</v>
       </c>
       <c r="D13">
-        <v>2.928280277094802</v>
+        <v>2.018180814288814</v>
       </c>
       <c r="E13">
-        <v>21.38596685349935</v>
+        <v>41.32859566227307</v>
       </c>
       <c r="F13">
-        <v>22.56471137841231</v>
+        <v>34.5769798768529</v>
       </c>
       <c r="G13">
-        <v>29.52583837487109</v>
+        <v>51.79573909224914</v>
       </c>
       <c r="H13">
-        <v>11.82779458430778</v>
+        <v>12.84209138931927</v>
       </c>
       <c r="I13">
-        <v>17.86903803392806</v>
+        <v>25.39945155518236</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.66926542142356</v>
+        <v>26.70596934337735</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,25 +841,25 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>2.969839099306019</v>
+        <v>3.349036586378468</v>
       </c>
       <c r="D14">
-        <v>2.927875510157183</v>
+        <v>2.01020395124929</v>
       </c>
       <c r="E14">
-        <v>21.198550945294</v>
+        <v>40.89625343119852</v>
       </c>
       <c r="F14">
-        <v>22.45769576608214</v>
+        <v>34.23994420969243</v>
       </c>
       <c r="G14">
-        <v>29.3196249215489</v>
+        <v>51.2875985349791</v>
       </c>
       <c r="H14">
-        <v>11.80844630836659</v>
+        <v>12.71660709281665</v>
       </c>
       <c r="I14">
-        <v>17.80415702362779</v>
+        <v>25.1511057229962</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.59987109836102</v>
+        <v>26.44368529175831</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,25 +876,25 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>2.965917026405712</v>
+        <v>3.331301884986469</v>
       </c>
       <c r="D15">
-        <v>2.927632201063894</v>
+        <v>2.005347201710767</v>
       </c>
       <c r="E15">
-        <v>21.08296049945112</v>
+        <v>40.63072914071009</v>
       </c>
       <c r="F15">
-        <v>22.39200815117388</v>
+        <v>34.03258525038608</v>
       </c>
       <c r="G15">
-        <v>29.19271661739474</v>
+        <v>50.97499552373578</v>
       </c>
       <c r="H15">
-        <v>11.79663468415417</v>
+        <v>12.63941880457279</v>
       </c>
       <c r="I15">
-        <v>17.76439178787495</v>
+        <v>24.9982984505568</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.55733387493649</v>
+        <v>26.28231758279832</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,25 +911,25 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>2.943534559880374</v>
+        <v>3.228041760465665</v>
       </c>
       <c r="D16">
-        <v>2.926308821137681</v>
+        <v>1.977938966271073</v>
       </c>
       <c r="E16">
-        <v>20.40838086130207</v>
+        <v>39.09763352672</v>
       </c>
       <c r="F16">
-        <v>22.0135893548844</v>
+        <v>32.83001914110417</v>
       </c>
       <c r="G16">
-        <v>28.45646176678647</v>
+        <v>49.16245644254619</v>
       </c>
       <c r="H16">
-        <v>11.72957162029899</v>
+        <v>12.19199771975822</v>
       </c>
       <c r="I16">
-        <v>17.53622022891922</v>
+        <v>24.11187006798096</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.3131676816905</v>
+        <v>25.3464642175792</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,25 +946,25 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>2.929893489230276</v>
+        <v>3.163234094135504</v>
       </c>
       <c r="D17">
-        <v>2.925560342612827</v>
+        <v>1.961477392595148</v>
       </c>
       <c r="E17">
-        <v>19.98365333694488</v>
+        <v>38.14614089938626</v>
       </c>
       <c r="F17">
-        <v>21.77979758343483</v>
+        <v>32.07928429853239</v>
       </c>
       <c r="G17">
-        <v>27.99693971637658</v>
+        <v>48.03123610009579</v>
       </c>
       <c r="H17">
-        <v>11.68900436561274</v>
+        <v>11.91288169579539</v>
       </c>
       <c r="I17">
-        <v>17.39606113090698</v>
+        <v>23.55827083275209</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.16310401839636</v>
+        <v>24.76219712240854</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,25 +981,25 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>2.922083121824703</v>
+        <v>3.125419015942466</v>
       </c>
       <c r="D18">
-        <v>2.925153159089977</v>
+        <v>1.952129210162074</v>
       </c>
       <c r="E18">
-        <v>19.73534616995748</v>
+        <v>37.5945515158125</v>
       </c>
       <c r="F18">
-        <v>21.64477615587814</v>
+        <v>31.64260633569215</v>
       </c>
       <c r="G18">
-        <v>27.72982129512861</v>
+        <v>47.37334074383296</v>
       </c>
       <c r="H18">
-        <v>11.66588845484039</v>
+        <v>11.75060024718949</v>
       </c>
       <c r="I18">
-        <v>17.31540951244098</v>
+        <v>23.23617261700505</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.07672379090912</v>
+        <v>24.42232515686596</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,25 +1016,25 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>2.91944502870715</v>
+        <v>3.112522604412667</v>
       </c>
       <c r="D19">
-        <v>2.925019302266265</v>
+        <v>1.948983865543057</v>
       </c>
       <c r="E19">
-        <v>19.65058295046881</v>
+        <v>37.40702657875722</v>
       </c>
       <c r="F19">
-        <v>21.59897088845626</v>
+        <v>31.49390858741532</v>
       </c>
       <c r="G19">
-        <v>27.63890367331788</v>
+        <v>47.14932957588439</v>
       </c>
       <c r="H19">
-        <v>11.6580997302975</v>
+        <v>11.69535217303858</v>
       </c>
       <c r="I19">
-        <v>17.28809914378474</v>
+        <v>23.12647598929448</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.04746857153799</v>
+        <v>24.30658695494596</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,25 +1051,25 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>2.931341976901226</v>
+        <v>3.170188753755053</v>
       </c>
       <c r="D20">
-        <v>2.925637606425362</v>
+        <v>1.963217125356537</v>
       </c>
       <c r="E20">
-        <v>20.02928160063101</v>
+        <v>38.24786958288863</v>
       </c>
       <c r="F20">
-        <v>21.80474333456367</v>
+        <v>32.15970374355229</v>
       </c>
       <c r="G20">
-        <v>28.04614951869005</v>
+        <v>48.15240304515066</v>
       </c>
       <c r="H20">
-        <v>11.69330047348332</v>
+        <v>11.94277349402197</v>
       </c>
       <c r="I20">
-        <v>17.41098573139984</v>
+        <v>23.61758181282626</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.17908631470509</v>
+        <v>24.82478651327671</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,25 +1086,25 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>2.971721398969819</v>
+        <v>3.357512126763661</v>
       </c>
       <c r="D21">
-        <v>2.927993436917682</v>
+        <v>2.012540777719757</v>
       </c>
       <c r="E21">
-        <v>21.2537646947785</v>
+        <v>41.02338737595954</v>
       </c>
       <c r="F21">
-        <v>22.48915776837043</v>
+        <v>34.33912978992463</v>
       </c>
       <c r="G21">
-        <v>29.38031949041873</v>
+        <v>51.43713252563293</v>
       </c>
       <c r="H21">
-        <v>11.81412111816856</v>
+        <v>12.75353247372744</v>
       </c>
       <c r="I21">
-        <v>17.82321926515934</v>
+        <v>25.22419385307171</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.62026057364823</v>
+        <v>26.52087213710705</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,25 +1121,25 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>2.99837368311897</v>
+        <v>3.475191472070876</v>
       </c>
       <c r="D22">
-        <v>2.929740081761629</v>
+        <v>2.046062090769628</v>
       </c>
       <c r="E22">
-        <v>22.01852129484445</v>
+        <v>42.80515257819289</v>
       </c>
       <c r="F22">
-        <v>22.93045133276988</v>
+        <v>35.72229164629742</v>
       </c>
       <c r="G22">
-        <v>30.2257616176663</v>
+        <v>53.52292809722719</v>
       </c>
       <c r="H22">
-        <v>11.89488114835647</v>
+        <v>13.26873746338599</v>
       </c>
       <c r="I22">
-        <v>18.09165908564866</v>
+        <v>26.24318281997422</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.90728699567929</v>
+        <v>27.59729450462198</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,25 +1156,25 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>2.984127550908814</v>
+        <v>3.412815265986295</v>
       </c>
       <c r="D23">
-        <v>2.928788961441041</v>
+        <v>2.028041726020998</v>
       </c>
       <c r="E23">
-        <v>21.61359423408222</v>
+        <v>41.85680586632166</v>
       </c>
       <c r="F23">
-        <v>22.69552572357222</v>
+        <v>34.98772773638164</v>
       </c>
       <c r="G23">
-        <v>29.77702354447645</v>
+        <v>52.41508977596473</v>
       </c>
       <c r="H23">
-        <v>11.85162039647263</v>
+        <v>12.99506102151875</v>
       </c>
       <c r="I23">
-        <v>17.94850833355133</v>
+        <v>25.70207576503681</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.75424828378111</v>
+        <v>27.02562128674754</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,25 +1191,25 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>2.930687015147872</v>
+        <v>3.167046285453857</v>
       </c>
       <c r="D24">
-        <v>2.925602603432695</v>
+        <v>1.962430233708813</v>
       </c>
       <c r="E24">
-        <v>20.00866591621071</v>
+        <v>38.20189232479289</v>
       </c>
       <c r="F24">
-        <v>21.7934672522137</v>
+        <v>32.12336192896065</v>
       </c>
       <c r="G24">
-        <v>28.02391088581592</v>
+        <v>48.09764699759545</v>
       </c>
       <c r="H24">
-        <v>11.69135755756652</v>
+        <v>11.92926507072096</v>
       </c>
       <c r="I24">
-        <v>17.40423853716604</v>
+        <v>23.59077925658411</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.17186104263799</v>
+        <v>24.79650223262193</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,25 +1226,25 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>2.874436613818316</v>
+        <v>2.882213543806195</v>
       </c>
       <c r="D25">
-        <v>2.923057563585532</v>
+        <v>1.896172267419071</v>
       </c>
       <c r="E25">
-        <v>18.12383623505978</v>
+        <v>34.09190789028889</v>
       </c>
       <c r="F25">
-        <v>20.80018057611107</v>
+        <v>28.84640518733043</v>
       </c>
       <c r="G25">
-        <v>26.02655440719849</v>
+        <v>43.16202877216117</v>
       </c>
       <c r="H25">
-        <v>11.5268708537711</v>
+        <v>10.80647886894761</v>
       </c>
       <c r="I25">
-        <v>16.81621279524715</v>
+        <v>21.17183243716251</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.54153717719697</v>
+        <v>22.24526945537768</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,845 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
-        <v>2.685278358652787</v>
+        <v>11.55311486454212</v>
       </c>
       <c r="D2">
-        <v>1.850387163987805</v>
+        <v>5.37970677368043</v>
       </c>
       <c r="E2">
-        <v>30.89392633178616</v>
+        <v>12.16165925510805</v>
       </c>
       <c r="F2">
-        <v>26.26273398367714</v>
+        <v>15.57500393903216</v>
       </c>
       <c r="G2">
-        <v>39.27226784199563</v>
+        <v>18.23881526328069</v>
       </c>
       <c r="H2">
-        <v>10.08566141346997</v>
+        <v>1.802550454214188</v>
       </c>
       <c r="I2">
-        <v>19.26073346002923</v>
+        <v>2.911388492341765</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.117332360529502</v>
+      </c>
+      <c r="K2">
+        <v>14.88868058178774</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
+      <c r="M2">
+        <v>24.52898742381113</v>
+      </c>
+      <c r="N2">
+        <v>7.047137589077081</v>
+      </c>
       <c r="O2">
-        <v>20.23165743323394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>12.69033583130656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
-        <v>2.546362654473815</v>
+        <v>11.01461461557554</v>
       </c>
       <c r="D3">
-        <v>1.820894293862637</v>
+        <v>5.15348103296872</v>
       </c>
       <c r="E3">
-        <v>28.6079036774675</v>
+        <v>11.63588784128269</v>
       </c>
       <c r="F3">
-        <v>24.40137913916089</v>
+        <v>15.42052956941462</v>
       </c>
       <c r="G3">
-        <v>36.47022730485021</v>
+        <v>18.15226149216696</v>
       </c>
       <c r="H3">
-        <v>9.585700207438352</v>
+        <v>1.59926036335634</v>
       </c>
       <c r="I3">
-        <v>17.88092654260083</v>
+        <v>2.740312514810539</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.204936410668486</v>
+      </c>
+      <c r="K3">
+        <v>14.80318648277134</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
+      <c r="M3">
+        <v>22.97148924337414</v>
+      </c>
+      <c r="N3">
+        <v>6.840949472835618</v>
+      </c>
       <c r="O3">
-        <v>18.77895703120073</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.78745654906389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
-        <v>2.458614719979298</v>
+        <v>10.66523222382148</v>
       </c>
       <c r="D4">
-        <v>1.803454734605005</v>
+        <v>5.009163570229015</v>
       </c>
       <c r="E4">
-        <v>27.14239935668828</v>
+        <v>11.2987544568993</v>
       </c>
       <c r="F4">
-        <v>23.20744265047291</v>
+        <v>15.3375495517512</v>
       </c>
       <c r="G4">
-        <v>34.6662754981649</v>
+        <v>18.11863395206114</v>
       </c>
       <c r="H4">
-        <v>9.273805540249947</v>
+        <v>1.653542526376117</v>
       </c>
       <c r="I4">
-        <v>16.99096797979799</v>
+        <v>2.631957893732137</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.26245111990106</v>
+      </c>
+      <c r="K4">
+        <v>14.75546191182223</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
+      <c r="M4">
+        <v>21.95871711472033</v>
+      </c>
+      <c r="N4">
+        <v>6.711149005050371</v>
+      </c>
       <c r="O4">
-        <v>17.85286660077072</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.85594709078874</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
-        <v>2.422283914241441</v>
+        <v>10.50703730631546</v>
       </c>
       <c r="D5">
-        <v>1.796505057955675</v>
+        <v>4.950663429855445</v>
       </c>
       <c r="E5">
-        <v>26.52918790723291</v>
+        <v>11.15401063303857</v>
       </c>
       <c r="F5">
-        <v>22.74978188795686</v>
+        <v>15.29993489634129</v>
       </c>
       <c r="G5">
-        <v>33.9099698513318</v>
+        <v>18.09794917703821</v>
       </c>
       <c r="H5">
-        <v>9.14561203011953</v>
+        <v>1.70918391855164</v>
       </c>
       <c r="I5">
-        <v>16.66188929369408</v>
+        <v>2.587494604954955</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.285094177291887</v>
+      </c>
+      <c r="K5">
+        <v>14.73016129237088</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
+      <c r="M5">
+        <v>21.53167916790052</v>
+      </c>
+      <c r="N5">
+        <v>6.658026890257425</v>
+      </c>
       <c r="O5">
-        <v>17.5225938221233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.88151024940621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
-        <v>2.416218065132576</v>
+        <v>10.46679441313696</v>
       </c>
       <c r="D6">
-        <v>1.795360257416169</v>
+        <v>4.942865599210332</v>
       </c>
       <c r="E6">
-        <v>26.42638544819233</v>
+        <v>11.12503110826745</v>
       </c>
       <c r="F6">
-        <v>22.6731588808026</v>
+        <v>15.2856515283831</v>
       </c>
       <c r="G6">
-        <v>33.78310217554962</v>
+        <v>18.08053203041308</v>
       </c>
       <c r="H6">
-        <v>9.124264246333956</v>
+        <v>1.718970383491628</v>
       </c>
       <c r="I6">
-        <v>16.60978719291685</v>
+        <v>2.580927162944788</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.28683070540076</v>
+      </c>
+      <c r="K6">
+        <v>14.71744411803929</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
+      <c r="M6">
+        <v>21.45973077254592</v>
+      </c>
+      <c r="N6">
+        <v>6.649815858160428</v>
+      </c>
       <c r="O6">
-        <v>17.46736441706382</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.88042234153753</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
-        <v>2.458127005035591</v>
+        <v>10.62628947355976</v>
       </c>
       <c r="D7">
-        <v>1.803360386525579</v>
+        <v>5.013764877865463</v>
       </c>
       <c r="E7">
-        <v>27.13419474857012</v>
+        <v>11.28407819552914</v>
       </c>
       <c r="F7">
-        <v>23.2013127757369</v>
+        <v>15.31467137509762</v>
       </c>
       <c r="G7">
-        <v>34.65616166480876</v>
+        <v>18.07942660016709</v>
       </c>
       <c r="H7">
-        <v>9.272080897725891</v>
+        <v>1.655561198113682</v>
       </c>
       <c r="I7">
-        <v>16.98597442306254</v>
+        <v>2.633324128025236</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.257077434975207</v>
+      </c>
+      <c r="K7">
+        <v>14.73170602062713</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
+      <c r="M7">
+        <v>21.95252488622534</v>
+      </c>
+      <c r="N7">
+        <v>6.712215090516573</v>
+      </c>
       <c r="O7">
-        <v>17.84843858792023</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.84135995540816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
-        <v>2.637913282755835</v>
+        <v>11.32528739970012</v>
       </c>
       <c r="D8">
-        <v>1.840071905960886</v>
+        <v>5.309695823663543</v>
       </c>
       <c r="E8">
-        <v>30.11826758957895</v>
+        <v>11.96744180696033</v>
       </c>
       <c r="F8">
-        <v>25.6323610352932</v>
+        <v>15.49003373315042</v>
       </c>
       <c r="G8">
-        <v>38.32332326093801</v>
+        <v>18.15361822871062</v>
       </c>
       <c r="H8">
-        <v>9.914371664684699</v>
+        <v>1.731850004118904</v>
       </c>
       <c r="I8">
-        <v>18.7937656251656</v>
+        <v>2.855023993641876</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.139219708549117</v>
+      </c>
+      <c r="K8">
+        <v>14.82746748720111</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
+      <c r="M8">
+        <v>24.00308899539429</v>
+      </c>
+      <c r="N8">
+        <v>6.979048698273058</v>
+      </c>
       <c r="O8">
-        <v>19.7399128765404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12.70210237526351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
-        <v>2.980337562455575</v>
+        <v>12.60475630039899</v>
       </c>
       <c r="D9">
-        <v>1.917973954195582</v>
+        <v>5.836397786777621</v>
       </c>
       <c r="E9">
-        <v>35.50136867666692</v>
+        <v>13.21103217309326</v>
       </c>
       <c r="F9">
-        <v>29.97621145389181</v>
+        <v>15.97012038116209</v>
       </c>
       <c r="G9">
-        <v>44.86334879764333</v>
+        <v>18.53262984801668</v>
       </c>
       <c r="H9">
-        <v>11.13181451005932</v>
+        <v>2.215748757945081</v>
       </c>
       <c r="I9">
-        <v>22.006348256383</v>
+        <v>3.262045096240006</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.949411639627095</v>
+      </c>
+      <c r="K9">
+        <v>15.09579438439008</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
+      <c r="M9">
+        <v>27.57697349187438</v>
+      </c>
+      <c r="N9">
+        <v>7.472087221102776</v>
+      </c>
       <c r="O9">
-        <v>23.1251028886115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12.53132935306135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
-        <v>3.23536385284216</v>
+        <v>13.32632157837193</v>
       </c>
       <c r="D10">
-        <v>1.979834280950805</v>
+        <v>6.219892286281492</v>
       </c>
       <c r="E10">
-        <v>39.20564027652708</v>
+        <v>13.83731104331356</v>
       </c>
       <c r="F10">
-        <v>32.91502953371228</v>
+        <v>16.27225961741922</v>
       </c>
       <c r="G10">
-        <v>49.29056581974694</v>
+        <v>18.72295377594473</v>
       </c>
       <c r="H10">
-        <v>12.223613455394</v>
+        <v>2.538311219543846</v>
       </c>
       <c r="I10">
-        <v>24.1745462445522</v>
+        <v>3.540811565760285</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.800798017872978</v>
+      </c>
+      <c r="K10">
+        <v>15.20815187002536</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
+      <c r="M10">
+        <v>29.92821220359766</v>
+      </c>
+      <c r="N10">
+        <v>7.700326582072792</v>
+      </c>
       <c r="O10">
-        <v>25.41262207603184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12.37889934464572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
-        <v>3.345651455989929</v>
+        <v>12.67913423633682</v>
       </c>
       <c r="D11">
-        <v>2.009273475552718</v>
+        <v>6.595268920227613</v>
       </c>
       <c r="E11">
-        <v>40.84551932566234</v>
+        <v>12.36072414984238</v>
       </c>
       <c r="F11">
-        <v>34.20034531098366</v>
+        <v>15.50525803610808</v>
       </c>
       <c r="G11">
-        <v>51.22789982888072</v>
+        <v>17.2078688199711</v>
       </c>
       <c r="H11">
-        <v>12.701865720885</v>
+        <v>3.276178013582312</v>
       </c>
       <c r="I11">
-        <v>25.12192529179658</v>
+        <v>3.616668443745875</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.491198921898492</v>
+      </c>
+      <c r="K11">
+        <v>14.37887982592128</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
+      <c r="M11">
+        <v>30.92095643261573</v>
+      </c>
+      <c r="N11">
+        <v>6.851369758769629</v>
+      </c>
       <c r="O11">
-        <v>26.41286921529518</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11.66895008619457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
-        <v>3.386599761570602</v>
+        <v>12.03392371411909</v>
       </c>
       <c r="D12">
-        <v>2.020638746287457</v>
+        <v>6.830645612678336</v>
       </c>
       <c r="E12">
-        <v>41.46089353153981</v>
+        <v>11.05428709262563</v>
       </c>
       <c r="F12">
-        <v>34.6799639246102</v>
+        <v>14.8089708063079</v>
       </c>
       <c r="G12">
-        <v>51.95101676803731</v>
+        <v>15.92364231068169</v>
       </c>
       <c r="H12">
-        <v>12.88044020919723</v>
+        <v>4.426355697327264</v>
       </c>
       <c r="I12">
-        <v>25.47533018962964</v>
+        <v>3.62495565039415</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.271049618352361</v>
+      </c>
+      <c r="K12">
+        <v>13.69062586302509</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
+      <c r="M12">
+        <v>31.28239221545893</v>
+      </c>
+      <c r="N12">
+        <v>6.166321437591143</v>
+      </c>
       <c r="O12">
-        <v>26.786112963346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11.12361625604629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
-        <v>3.377816929926341</v>
+        <v>11.29092090246906</v>
       </c>
       <c r="D13">
-        <v>2.018180814288814</v>
+        <v>6.984419846820219</v>
       </c>
       <c r="E13">
-        <v>41.32859566227307</v>
+        <v>9.783533073093324</v>
       </c>
       <c r="F13">
-        <v>34.5769798768529</v>
+        <v>14.08203362515357</v>
       </c>
       <c r="G13">
-        <v>51.79573909224914</v>
+        <v>14.67135888143328</v>
       </c>
       <c r="H13">
-        <v>12.84209138931927</v>
+        <v>5.683629508005528</v>
       </c>
       <c r="I13">
-        <v>25.39945155518236</v>
+        <v>3.583997536686114</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.099329048001918</v>
+      </c>
+      <c r="K13">
+        <v>13.03483909311815</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
+      <c r="M13">
+        <v>31.19148037621572</v>
+      </c>
+      <c r="N13">
+        <v>5.592046946301962</v>
+      </c>
       <c r="O13">
-        <v>26.70596934337735</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>10.65236390548081</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
-        <v>3.349036586378468</v>
+        <v>10.71383824240914</v>
       </c>
       <c r="D14">
-        <v>2.01020395124929</v>
+        <v>7.058318051308595</v>
       </c>
       <c r="E14">
-        <v>40.89625343119852</v>
+        <v>8.934893183906052</v>
       </c>
       <c r="F14">
-        <v>34.23994420969243</v>
+        <v>13.55305040782265</v>
       </c>
       <c r="G14">
-        <v>51.2875985349791</v>
+        <v>13.80756057311766</v>
       </c>
       <c r="H14">
-        <v>12.71660709281665</v>
+        <v>6.600365721855113</v>
       </c>
       <c r="I14">
-        <v>25.1511057229962</v>
+        <v>3.534033904260952</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.002376998656825</v>
+      </c>
+      <c r="K14">
+        <v>12.59101933954002</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
+      <c r="M14">
+        <v>30.921946184697</v>
+      </c>
+      <c r="N14">
+        <v>5.277403842144173</v>
+      </c>
       <c r="O14">
-        <v>26.44368529175831</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>10.3596930923727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
-        <v>3.331301884986469</v>
+        <v>10.53983343390519</v>
       </c>
       <c r="D15">
-        <v>2.005347201710767</v>
+        <v>7.060539372567977</v>
       </c>
       <c r="E15">
-        <v>40.63072914071009</v>
+        <v>8.726684607221905</v>
       </c>
       <c r="F15">
-        <v>34.03258525038608</v>
+        <v>13.41252326900524</v>
       </c>
       <c r="G15">
-        <v>50.97499552373578</v>
+        <v>13.59675668264294</v>
       </c>
       <c r="H15">
-        <v>12.63941880457279</v>
+        <v>6.809198365751097</v>
       </c>
       <c r="I15">
-        <v>24.9982984505568</v>
+        <v>3.511624834666845</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.987697405589123</v>
+      </c>
+      <c r="K15">
+        <v>12.48380018545983</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
+      <c r="M15">
+        <v>30.75820792496749</v>
+      </c>
+      <c r="N15">
+        <v>5.214145854858336</v>
+      </c>
       <c r="O15">
-        <v>26.28231758279832</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10.30116209767789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
-        <v>3.228041760465665</v>
+        <v>10.3283175160211</v>
       </c>
       <c r="D16">
-        <v>1.977938966271073</v>
+        <v>6.882626154156492</v>
       </c>
       <c r="E16">
-        <v>39.09763352672</v>
+        <v>8.652902549985738</v>
       </c>
       <c r="F16">
-        <v>32.83001914110417</v>
+        <v>13.39543455704233</v>
       </c>
       <c r="G16">
-        <v>49.16245644254619</v>
+        <v>13.72983405079755</v>
       </c>
       <c r="H16">
-        <v>12.19199771975822</v>
+        <v>6.538675519357313</v>
       </c>
       <c r="I16">
-        <v>24.11187006798096</v>
+        <v>3.402095928511899</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.086220908234996</v>
+      </c>
+      <c r="K16">
+        <v>12.55631056008979</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
+      <c r="M16">
+        <v>29.81259433166846</v>
+      </c>
+      <c r="N16">
+        <v>5.216898405261306</v>
+      </c>
       <c r="O16">
-        <v>25.3464642175792</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10.46096455172216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
-        <v>3.163234094135504</v>
+        <v>10.47885896823282</v>
       </c>
       <c r="D17">
-        <v>1.961477392595148</v>
+        <v>6.702697480458494</v>
       </c>
       <c r="E17">
-        <v>38.14614089938626</v>
+        <v>9.039381220401568</v>
       </c>
       <c r="F17">
-        <v>32.07928429853239</v>
+        <v>13.66853241869887</v>
       </c>
       <c r="G17">
-        <v>48.03123610009579</v>
+        <v>14.28848602184094</v>
       </c>
       <c r="H17">
-        <v>11.91288169579539</v>
+        <v>5.795149535722234</v>
       </c>
       <c r="I17">
-        <v>23.55827083275209</v>
+        <v>3.344547501998663</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.21157601807333</v>
+      </c>
+      <c r="K17">
+        <v>12.84389448452067</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
+      <c r="M17">
+        <v>29.22104857547049</v>
+      </c>
+      <c r="N17">
+        <v>5.369916712449921</v>
+      </c>
       <c r="O17">
-        <v>24.76219712240854</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10.73412686988199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
-        <v>3.125419015942466</v>
+        <v>10.99347412106686</v>
       </c>
       <c r="D18">
-        <v>1.952129210162074</v>
+        <v>6.499421091754989</v>
       </c>
       <c r="E18">
-        <v>37.5945515158125</v>
+        <v>9.955039428318184</v>
       </c>
       <c r="F18">
-        <v>31.64260633569215</v>
+        <v>14.23197887301489</v>
       </c>
       <c r="G18">
-        <v>47.37334074383296</v>
+        <v>15.30272624852985</v>
       </c>
       <c r="H18">
-        <v>11.75060024718949</v>
+        <v>4.603030268530415</v>
       </c>
       <c r="I18">
-        <v>23.23617261700505</v>
+        <v>3.325321286665459</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.380279780951179</v>
+      </c>
+      <c r="K18">
+        <v>13.37264797169096</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
+      <c r="M18">
+        <v>28.88146593764779</v>
+      </c>
+      <c r="N18">
+        <v>5.756798291479877</v>
+      </c>
       <c r="O18">
-        <v>24.42232515686596</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.15073542850477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
-        <v>3.112522604412667</v>
+        <v>11.7143099179154</v>
       </c>
       <c r="D19">
-        <v>1.948983865543057</v>
+        <v>6.306004873669722</v>
       </c>
       <c r="E19">
-        <v>37.40702657875722</v>
+        <v>11.29107453764488</v>
       </c>
       <c r="F19">
-        <v>31.49390858741532</v>
+        <v>14.94632456468453</v>
       </c>
       <c r="G19">
-        <v>47.14932957588439</v>
+        <v>16.55662084532919</v>
       </c>
       <c r="H19">
-        <v>11.69535217303858</v>
+        <v>3.301673177541745</v>
       </c>
       <c r="I19">
-        <v>23.12647598929448</v>
+        <v>3.348050142677052</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.567913723575555</v>
+      </c>
+      <c r="K19">
+        <v>14.03397747366428</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
+      <c r="M19">
+        <v>28.77473524904696</v>
+      </c>
+      <c r="N19">
+        <v>6.405069849487151</v>
+      </c>
       <c r="O19">
-        <v>24.30658695494596</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>11.64091826162682</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
-        <v>3.170188753755053</v>
+        <v>13.04324595935162</v>
       </c>
       <c r="D20">
-        <v>1.963217125356537</v>
+        <v>6.136930546909785</v>
       </c>
       <c r="E20">
-        <v>38.24786958288863</v>
+        <v>13.63453340693676</v>
       </c>
       <c r="F20">
-        <v>32.15970374355229</v>
+        <v>16.118449960571</v>
       </c>
       <c r="G20">
-        <v>48.15240304515066</v>
+        <v>18.5405697213081</v>
       </c>
       <c r="H20">
-        <v>11.94277349402197</v>
+        <v>2.449897891263033</v>
       </c>
       <c r="I20">
-        <v>23.61758181282626</v>
+        <v>3.474648484135853</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.819317224542948</v>
+      </c>
+      <c r="K20">
+        <v>15.1024136286365</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
+      <c r="M20">
+        <v>29.32776272777051</v>
+      </c>
+      <c r="N20">
+        <v>7.641047424345613</v>
+      </c>
       <c r="O20">
-        <v>24.82478651327671</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12.36521419325077</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
-        <v>3.357512126763661</v>
+        <v>13.75658176072893</v>
       </c>
       <c r="D21">
-        <v>2.012540777719757</v>
+        <v>6.382285868977935</v>
       </c>
       <c r="E21">
-        <v>41.02338737595954</v>
+        <v>14.41928671624324</v>
       </c>
       <c r="F21">
-        <v>34.33912978992463</v>
+        <v>16.54395986189112</v>
       </c>
       <c r="G21">
-        <v>51.43713252563293</v>
+        <v>19.03264452346431</v>
       </c>
       <c r="H21">
-        <v>12.75353247372744</v>
+        <v>2.711369790859055</v>
       </c>
       <c r="I21">
-        <v>25.22419385307171</v>
+        <v>3.6924808723356</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.759232426250827</v>
+      </c>
+      <c r="K21">
+        <v>15.3661141134008</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
+      <c r="M21">
+        <v>31.05017072250144</v>
+      </c>
+      <c r="N21">
+        <v>7.989411334240682</v>
+      </c>
       <c r="O21">
-        <v>26.52087213710705</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.3901203001764</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
-        <v>3.475191472070876</v>
+        <v>14.18597619343075</v>
       </c>
       <c r="D22">
-        <v>2.046062090769628</v>
+        <v>6.54328989857611</v>
       </c>
       <c r="E22">
-        <v>42.80515257819289</v>
+        <v>14.82395515896676</v>
       </c>
       <c r="F22">
-        <v>35.72229164629742</v>
+        <v>16.80772751630174</v>
       </c>
       <c r="G22">
-        <v>53.52292809722719</v>
+        <v>19.33109563087984</v>
       </c>
       <c r="H22">
-        <v>13.26873746338599</v>
+        <v>2.873247105308614</v>
       </c>
       <c r="I22">
-        <v>26.24318281997422</v>
+        <v>3.826801918622874</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.718137616047356</v>
+      </c>
+      <c r="K22">
+        <v>15.52154484759484</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
+      <c r="M22">
+        <v>32.12637898735684</v>
+      </c>
+      <c r="N22">
+        <v>8.151339259663381</v>
+      </c>
       <c r="O22">
-        <v>27.59729450462198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.40082694012531</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
-        <v>3.412815265986295</v>
+        <v>13.99251764943948</v>
       </c>
       <c r="D23">
-        <v>2.028041726020998</v>
+        <v>6.45259613741785</v>
       </c>
       <c r="E23">
-        <v>41.85680586632166</v>
+        <v>14.62119266146774</v>
       </c>
       <c r="F23">
-        <v>34.98772773638164</v>
+        <v>16.69005116422574</v>
       </c>
       <c r="G23">
-        <v>52.41508977596473</v>
+        <v>19.2127066592466</v>
       </c>
       <c r="H23">
-        <v>12.99506102151875</v>
+        <v>2.788328501942471</v>
       </c>
       <c r="I23">
-        <v>25.70207576503681</v>
+        <v>3.752936045500463</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.746431644313945</v>
+      </c>
+      <c r="K23">
+        <v>15.46431265155548</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
+      <c r="M23">
+        <v>31.55688299119065</v>
+      </c>
+      <c r="N23">
+        <v>8.063367886720194</v>
+      </c>
       <c r="O23">
-        <v>27.02562128674754</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.41168423539058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
-        <v>3.167046285453857</v>
+        <v>13.1718755710643</v>
       </c>
       <c r="D24">
-        <v>1.962430233708813</v>
+        <v>6.105954478226346</v>
       </c>
       <c r="E24">
-        <v>38.20189232479289</v>
+        <v>13.8058456207122</v>
       </c>
       <c r="F24">
-        <v>32.12336192896065</v>
+        <v>16.23096509771548</v>
       </c>
       <c r="G24">
-        <v>48.09764699759545</v>
+        <v>18.74456369533828</v>
       </c>
       <c r="H24">
-        <v>11.92926507072096</v>
+        <v>2.458049655444333</v>
       </c>
       <c r="I24">
-        <v>23.59077925658411</v>
+        <v>3.471720260508995</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.852547574199392</v>
+      </c>
+      <c r="K24">
+        <v>15.21742284813253</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
+      <c r="M24">
+        <v>29.30125777948765</v>
+      </c>
+      <c r="N24">
+        <v>7.725396250563129</v>
+      </c>
       <c r="O24">
-        <v>24.79650223262193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12.44978757234086</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
-        <v>2.882213543806195</v>
+        <v>12.21698307480851</v>
       </c>
       <c r="D25">
-        <v>1.896172267419071</v>
+        <v>5.707703236332589</v>
       </c>
       <c r="E25">
-        <v>34.09190789028889</v>
+        <v>12.86743937204234</v>
       </c>
       <c r="F25">
-        <v>28.84640518733043</v>
+        <v>15.79057407071232</v>
       </c>
       <c r="G25">
-        <v>43.16202877216117</v>
+        <v>18.34242667754235</v>
       </c>
       <c r="H25">
-        <v>10.80647886894761</v>
+        <v>2.086597152486466</v>
       </c>
       <c r="I25">
-        <v>21.17183243716251</v>
+        <v>3.157829150049372</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.98686971270207</v>
+      </c>
+      <c r="K25">
+        <v>14.97749432620937</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
+      <c r="M25">
+        <v>26.65729841565988</v>
+      </c>
+      <c r="N25">
+        <v>7.344911261310052</v>
+      </c>
       <c r="O25">
-        <v>22.24526945537768</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12.541546264367</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>11.55311486454212</v>
+        <v>10.5011765484978</v>
       </c>
       <c r="D2">
-        <v>5.37970677368043</v>
+        <v>5.499080933583786</v>
       </c>
       <c r="E2">
-        <v>12.16165925510805</v>
+        <v>11.82757943814828</v>
       </c>
       <c r="F2">
-        <v>15.57500393903216</v>
+        <v>15.00557387627581</v>
       </c>
       <c r="G2">
-        <v>18.23881526328069</v>
+        <v>16.49539827986396</v>
       </c>
       <c r="H2">
-        <v>1.802550454214188</v>
+        <v>1.820370247514468</v>
       </c>
       <c r="I2">
-        <v>2.911388492341765</v>
+        <v>2.94061382740732</v>
       </c>
       <c r="J2">
-        <v>8.117332360529502</v>
+        <v>8.470971855929703</v>
       </c>
       <c r="K2">
-        <v>14.88868058178774</v>
+        <v>14.21235439896791</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.51230784347611</v>
       </c>
       <c r="M2">
-        <v>24.52898742381113</v>
+        <v>8.624295158759734</v>
       </c>
       <c r="N2">
-        <v>7.047137589077081</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>24.52656050927376</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.137259294377351</v>
       </c>
       <c r="Q2">
-        <v>12.69033583130656</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.29241628724228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11.01461461557554</v>
+        <v>10.05328607013201</v>
       </c>
       <c r="D3">
-        <v>5.15348103296872</v>
+        <v>5.247709176673052</v>
       </c>
       <c r="E3">
-        <v>11.63588784128269</v>
+        <v>11.34284534129358</v>
       </c>
       <c r="F3">
-        <v>15.42052956941462</v>
+        <v>14.92025178016572</v>
       </c>
       <c r="G3">
-        <v>18.15226149216696</v>
+        <v>16.55042660216262</v>
       </c>
       <c r="H3">
-        <v>1.59926036335634</v>
+        <v>1.634045344285572</v>
       </c>
       <c r="I3">
-        <v>2.740312514810539</v>
+        <v>2.790327215478909</v>
       </c>
       <c r="J3">
-        <v>8.204936410668486</v>
+        <v>8.536387164740789</v>
       </c>
       <c r="K3">
-        <v>14.80318648277134</v>
+        <v>14.19103432933825</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.6161632196531</v>
       </c>
       <c r="M3">
-        <v>22.97148924337414</v>
+        <v>8.471587780821864</v>
       </c>
       <c r="N3">
-        <v>6.840949472835618</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>22.97568055309995</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.934643637522144</v>
       </c>
       <c r="Q3">
-        <v>12.78745654906389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.43114428005249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.66523222382148</v>
+        <v>9.761058253301531</v>
       </c>
       <c r="D4">
-        <v>5.009163570229015</v>
+        <v>5.087204140885741</v>
       </c>
       <c r="E4">
-        <v>11.2987544568993</v>
+        <v>11.0317435161605</v>
       </c>
       <c r="F4">
-        <v>15.3375495517512</v>
+        <v>14.87849467946388</v>
       </c>
       <c r="G4">
-        <v>18.11863395206114</v>
+        <v>16.60581751343331</v>
       </c>
       <c r="H4">
-        <v>1.653542526376117</v>
+        <v>1.606904311591589</v>
       </c>
       <c r="I4">
-        <v>2.631957893732137</v>
+        <v>2.695235374550461</v>
       </c>
       <c r="J4">
-        <v>8.26245111990106</v>
+        <v>8.578418754905183</v>
       </c>
       <c r="K4">
-        <v>14.75546191182223</v>
+        <v>14.18119410387305</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.67969129780402</v>
       </c>
       <c r="M4">
-        <v>21.95871711472033</v>
+        <v>8.400255125757676</v>
       </c>
       <c r="N4">
-        <v>6.711149005050371</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>21.96725645559665</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.807465538432256</v>
       </c>
       <c r="Q4">
-        <v>12.85594709078874</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.52358236865815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>10.50703730631546</v>
+        <v>9.626842055532322</v>
       </c>
       <c r="D5">
-        <v>4.950663429855445</v>
+        <v>5.021930938798827</v>
       </c>
       <c r="E5">
-        <v>11.15401063303857</v>
+        <v>10.89791331237127</v>
       </c>
       <c r="F5">
-        <v>15.29993489634129</v>
+        <v>14.85761192211839</v>
       </c>
       <c r="G5">
-        <v>18.09794917703821</v>
+        <v>16.62215179747032</v>
       </c>
       <c r="H5">
-        <v>1.70918391855164</v>
+        <v>1.65796396913379</v>
       </c>
       <c r="I5">
-        <v>2.587494604954955</v>
+        <v>2.65657320776632</v>
       </c>
       <c r="J5">
-        <v>8.285094177291887</v>
+        <v>8.59439486881424</v>
       </c>
       <c r="K5">
-        <v>14.73016129237088</v>
+        <v>14.17136536060804</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.69984936034122</v>
       </c>
       <c r="M5">
-        <v>21.53167916790052</v>
+        <v>8.372635049211336</v>
       </c>
       <c r="N5">
-        <v>6.658026890257425</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>21.54208152376589</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.75551943771308</v>
       </c>
       <c r="Q5">
-        <v>12.88151024940621</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.55880204045591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.46679441313696</v>
+        <v>9.591047903319485</v>
       </c>
       <c r="D6">
-        <v>4.942865599210332</v>
+        <v>5.013001027626165</v>
       </c>
       <c r="E6">
-        <v>11.12503110826745</v>
+        <v>10.87089321128219</v>
       </c>
       <c r="F6">
-        <v>15.2856515283831</v>
+        <v>14.84641751420063</v>
       </c>
       <c r="G6">
-        <v>18.08053203041308</v>
+        <v>16.61132723783857</v>
       </c>
       <c r="H6">
-        <v>1.718970383491628</v>
+        <v>1.666960577705165</v>
       </c>
       <c r="I6">
-        <v>2.580927162944788</v>
+        <v>2.651343856536618</v>
       </c>
       <c r="J6">
-        <v>8.28683070540076</v>
+        <v>8.595106738832623</v>
       </c>
       <c r="K6">
-        <v>14.71744411803929</v>
+        <v>14.16171248690832</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.69627435557355</v>
       </c>
       <c r="M6">
-        <v>21.45973077254592</v>
+        <v>8.363100473055916</v>
       </c>
       <c r="N6">
-        <v>6.649815858160428</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>21.4704588893403</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.747504640937827</v>
       </c>
       <c r="Q6">
-        <v>12.88042234153753</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.55963919958452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.62628947355976</v>
+        <v>9.727650626657889</v>
       </c>
       <c r="D7">
-        <v>5.013764877865463</v>
+        <v>5.094982897950016</v>
       </c>
       <c r="E7">
-        <v>11.28407819552914</v>
+        <v>11.01859801017028</v>
       </c>
       <c r="F7">
-        <v>15.31467137509762</v>
+        <v>14.84387488226111</v>
       </c>
       <c r="G7">
-        <v>18.07942660016709</v>
+        <v>16.64018459854186</v>
       </c>
       <c r="H7">
-        <v>1.655561198113682</v>
+        <v>1.609229032252976</v>
       </c>
       <c r="I7">
-        <v>2.633324128025236</v>
+        <v>2.697177062275742</v>
       </c>
       <c r="J7">
-        <v>8.257077434975207</v>
+        <v>8.545178815916044</v>
       </c>
       <c r="K7">
-        <v>14.73170602062713</v>
+        <v>14.15121056250716</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.65492563193576</v>
       </c>
       <c r="M7">
-        <v>21.95252488622534</v>
+        <v>8.379473319006978</v>
       </c>
       <c r="N7">
-        <v>6.712215090516573</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>21.96083632025981</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.80802685179439</v>
       </c>
       <c r="Q7">
-        <v>12.84135995540816</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.50173233036136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>11.32528739970012</v>
+        <v>10.31848877131113</v>
       </c>
       <c r="D8">
-        <v>5.309695823663543</v>
+        <v>5.430928266318302</v>
       </c>
       <c r="E8">
-        <v>11.96744180696033</v>
+        <v>11.65109407787893</v>
       </c>
       <c r="F8">
-        <v>15.49003373315042</v>
+        <v>14.90364979973709</v>
       </c>
       <c r="G8">
-        <v>18.15361822871062</v>
+        <v>16.70143235142984</v>
       </c>
       <c r="H8">
-        <v>1.731850004118904</v>
+        <v>1.754249261288387</v>
       </c>
       <c r="I8">
-        <v>2.855023993641876</v>
+        <v>2.891126225590959</v>
       </c>
       <c r="J8">
-        <v>8.139219708549117</v>
+        <v>8.394556194975133</v>
       </c>
       <c r="K8">
-        <v>14.82746748720111</v>
+        <v>14.14980471043638</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.50538116771947</v>
       </c>
       <c r="M8">
-        <v>24.00308899539429</v>
+        <v>8.525950487742165</v>
       </c>
       <c r="N8">
-        <v>6.979048698273058</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>24.00209643245434</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.068726815660193</v>
       </c>
       <c r="Q8">
-        <v>12.70210237526351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.2924739552056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>12.60475630039899</v>
+        <v>11.38285044907813</v>
       </c>
       <c r="D9">
-        <v>5.836397786777621</v>
+        <v>6.017797210118768</v>
       </c>
       <c r="E9">
-        <v>13.21103217309326</v>
+        <v>12.79764840010622</v>
       </c>
       <c r="F9">
-        <v>15.97012038116209</v>
+        <v>15.19429298845633</v>
       </c>
       <c r="G9">
-        <v>18.53262984801668</v>
+        <v>16.80901059344667</v>
       </c>
       <c r="H9">
-        <v>2.215748757945081</v>
+        <v>2.197179009705573</v>
       </c>
       <c r="I9">
-        <v>3.262045096240006</v>
+        <v>3.247683918805339</v>
       </c>
       <c r="J9">
-        <v>7.949411639627095</v>
+        <v>8.222022141538586</v>
       </c>
       <c r="K9">
-        <v>15.09579438439008</v>
+        <v>14.24184410865855</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.26393019558623</v>
       </c>
       <c r="M9">
-        <v>27.57697349187438</v>
+        <v>9.033511303987471</v>
       </c>
       <c r="N9">
-        <v>7.472087221102776</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>27.56054618615368</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.554802945954407</v>
       </c>
       <c r="Q9">
-        <v>12.53132935306135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>11.99920542000963</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.32632157837193</v>
+        <v>11.99462401834571</v>
       </c>
       <c r="D10">
-        <v>6.219892286281492</v>
+        <v>6.455492641958081</v>
       </c>
       <c r="E10">
-        <v>13.83731104331356</v>
+        <v>13.36988822301936</v>
       </c>
       <c r="F10">
-        <v>16.27225961741922</v>
+        <v>15.29653127979767</v>
       </c>
       <c r="G10">
-        <v>18.72295377594473</v>
+        <v>17.26035647695339</v>
       </c>
       <c r="H10">
-        <v>2.538311219543846</v>
+        <v>2.49004252325739</v>
       </c>
       <c r="I10">
-        <v>3.540811565760285</v>
+        <v>3.49105343964028</v>
       </c>
       <c r="J10">
-        <v>7.800798017872978</v>
+        <v>7.929594494577663</v>
       </c>
       <c r="K10">
-        <v>15.20815187002536</v>
+        <v>14.19167515539446</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.99286879328543</v>
       </c>
       <c r="M10">
-        <v>29.92821220359766</v>
+        <v>9.378994205459502</v>
       </c>
       <c r="N10">
-        <v>7.700326582072792</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>29.90032902046982</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.775478275954797</v>
       </c>
       <c r="Q10">
-        <v>12.37889934464572</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>11.71065163680419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.67913423633682</v>
+        <v>11.48741318909562</v>
       </c>
       <c r="D11">
-        <v>6.595268920227613</v>
+        <v>6.865447691660098</v>
       </c>
       <c r="E11">
-        <v>12.36072414984238</v>
+        <v>11.94031342195154</v>
       </c>
       <c r="F11">
-        <v>15.50525803610808</v>
+        <v>14.42834991538515</v>
       </c>
       <c r="G11">
-        <v>17.2078688199711</v>
+        <v>16.73881178980658</v>
       </c>
       <c r="H11">
-        <v>3.276178013582312</v>
+        <v>3.231573221617809</v>
       </c>
       <c r="I11">
-        <v>3.616668443745875</v>
+        <v>3.557255327462304</v>
       </c>
       <c r="J11">
-        <v>7.491198921898492</v>
+        <v>7.436710201091322</v>
       </c>
       <c r="K11">
-        <v>14.37887982592128</v>
+        <v>13.36187257153884</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.34042436424075</v>
       </c>
       <c r="M11">
-        <v>30.92095643261573</v>
+        <v>8.838850937569989</v>
       </c>
       <c r="N11">
-        <v>6.851369758769629</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>30.88897683871965</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.902482177771431</v>
       </c>
       <c r="Q11">
-        <v>11.66895008619457</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>10.9636186773375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.03392371411909</v>
+        <v>10.97038535410516</v>
       </c>
       <c r="D12">
-        <v>6.830645612678336</v>
+        <v>7.108740075590739</v>
       </c>
       <c r="E12">
-        <v>11.05428709262563</v>
+        <v>10.68385601362376</v>
       </c>
       <c r="F12">
-        <v>14.8089708063079</v>
+        <v>13.734503393839</v>
       </c>
       <c r="G12">
-        <v>15.92364231068169</v>
+        <v>15.963815119798</v>
       </c>
       <c r="H12">
-        <v>4.426355697327264</v>
+        <v>4.39307315091451</v>
       </c>
       <c r="I12">
-        <v>3.62495565039415</v>
+        <v>3.563629358786143</v>
       </c>
       <c r="J12">
-        <v>7.271049618352361</v>
+        <v>7.224235297690386</v>
       </c>
       <c r="K12">
-        <v>13.69062586302509</v>
+        <v>12.73891594920931</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.90838506727075</v>
       </c>
       <c r="M12">
-        <v>31.28239221545893</v>
+        <v>8.348379090483173</v>
       </c>
       <c r="N12">
-        <v>6.166321437591143</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>31.24977039972394</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.197796704420704</v>
       </c>
       <c r="Q12">
-        <v>11.12361625604629</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>10.45258702396747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.29092090246906</v>
+        <v>10.35116485312722</v>
       </c>
       <c r="D13">
-        <v>6.984419846820219</v>
+        <v>7.242740039359839</v>
       </c>
       <c r="E13">
-        <v>9.783533073093324</v>
+        <v>9.469360731741816</v>
       </c>
       <c r="F13">
-        <v>14.08203362515357</v>
+        <v>13.1223855300551</v>
       </c>
       <c r="G13">
-        <v>14.67135888143328</v>
+        <v>14.68485543421598</v>
       </c>
       <c r="H13">
-        <v>5.683629508005528</v>
+        <v>5.660661755786811</v>
       </c>
       <c r="I13">
-        <v>3.583997536686114</v>
+        <v>3.528711595817356</v>
       </c>
       <c r="J13">
-        <v>7.099329048001918</v>
+        <v>7.174825729038361</v>
       </c>
       <c r="K13">
-        <v>13.03483909311815</v>
+        <v>12.21966335193933</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.59205690724422</v>
       </c>
       <c r="M13">
-        <v>31.19148037621572</v>
+        <v>7.855741296430916</v>
       </c>
       <c r="N13">
-        <v>5.592046946301962</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>31.16118182293659</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.607410787263027</v>
       </c>
       <c r="Q13">
-        <v>10.65236390548081</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.08893861686739</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.71383824240914</v>
+        <v>9.860806550898911</v>
       </c>
       <c r="D14">
-        <v>7.058318051308595</v>
+        <v>7.29005567206829</v>
       </c>
       <c r="E14">
-        <v>8.934893183906052</v>
+        <v>8.665310669107209</v>
       </c>
       <c r="F14">
-        <v>13.55305040782265</v>
+        <v>12.72265115526332</v>
       </c>
       <c r="G14">
-        <v>13.80756057311766</v>
+        <v>13.57334535499319</v>
       </c>
       <c r="H14">
-        <v>6.600365721855113</v>
+        <v>6.583441886944691</v>
       </c>
       <c r="I14">
-        <v>3.534033904260952</v>
+        <v>3.486811051646054</v>
       </c>
       <c r="J14">
-        <v>7.002376998656825</v>
+        <v>7.192629289398527</v>
       </c>
       <c r="K14">
-        <v>12.59101933954002</v>
+        <v>11.89946130900321</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.41474561214776</v>
       </c>
       <c r="M14">
-        <v>30.921946184697</v>
+        <v>7.509468884357738</v>
       </c>
       <c r="N14">
-        <v>5.277403842144173</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>30.89457162894692</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.283466585831565</v>
       </c>
       <c r="Q14">
-        <v>10.3596930923727</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>9.898893618449563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.53983343390519</v>
+        <v>9.708479266858975</v>
       </c>
       <c r="D15">
-        <v>7.060539372567977</v>
+        <v>7.280322667362321</v>
       </c>
       <c r="E15">
-        <v>8.726684607221905</v>
+        <v>8.469596447269231</v>
       </c>
       <c r="F15">
-        <v>13.41252326900524</v>
+        <v>12.63438407935507</v>
       </c>
       <c r="G15">
-        <v>13.59675668264294</v>
+        <v>13.20992180950374</v>
       </c>
       <c r="H15">
-        <v>6.809198365751097</v>
+        <v>6.794042282141525</v>
       </c>
       <c r="I15">
-        <v>3.511624834666845</v>
+        <v>3.468591544448002</v>
       </c>
       <c r="J15">
-        <v>6.987697405589123</v>
+        <v>7.219458309347217</v>
       </c>
       <c r="K15">
-        <v>12.48380018545983</v>
+        <v>11.83426673361659</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.38565802002711</v>
       </c>
       <c r="M15">
-        <v>30.75820792496749</v>
+        <v>7.420418502504917</v>
       </c>
       <c r="N15">
-        <v>5.214145854858336</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>30.73219184048498</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.219134124773081</v>
       </c>
       <c r="Q15">
-        <v>10.30116209767789</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>9.876714637651281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.3283175160211</v>
+        <v>9.49648389612628</v>
       </c>
       <c r="D16">
-        <v>6.882626154156492</v>
+        <v>7.056659905705525</v>
       </c>
       <c r="E16">
-        <v>8.652902549985738</v>
+        <v>8.40415831872277</v>
       </c>
       <c r="F16">
-        <v>13.39543455704233</v>
+        <v>12.78681496447986</v>
       </c>
       <c r="G16">
-        <v>13.72983405079755</v>
+        <v>12.61728288375343</v>
       </c>
       <c r="H16">
-        <v>6.538675519357313</v>
+        <v>6.528513843670068</v>
       </c>
       <c r="I16">
-        <v>3.402095928511899</v>
+        <v>3.376309727017997</v>
       </c>
       <c r="J16">
-        <v>7.086220908234996</v>
+        <v>7.457382173134815</v>
       </c>
       <c r="K16">
-        <v>12.55631056008979</v>
+        <v>12.00164629504553</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.5508705758032</v>
       </c>
       <c r="M16">
-        <v>29.81259433166846</v>
+        <v>7.426051462172757</v>
       </c>
       <c r="N16">
-        <v>5.216898405261306</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>29.79254844799148</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.232952058779142</v>
       </c>
       <c r="Q16">
-        <v>10.46096455172216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.12894393334238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.47885896823282</v>
+        <v>9.603427143599529</v>
       </c>
       <c r="D17">
-        <v>6.702697480458494</v>
+        <v>6.860832565060901</v>
       </c>
       <c r="E17">
-        <v>9.039381220401568</v>
+        <v>8.772248184853705</v>
       </c>
       <c r="F17">
-        <v>13.66853241869887</v>
+        <v>13.10363772100194</v>
       </c>
       <c r="G17">
-        <v>14.28848602184094</v>
+        <v>12.8552583816334</v>
       </c>
       <c r="H17">
-        <v>5.795149535722234</v>
+        <v>5.786593097602812</v>
       </c>
       <c r="I17">
-        <v>3.344547501998663</v>
+        <v>3.327411490189311</v>
       </c>
       <c r="J17">
-        <v>7.21157601807333</v>
+        <v>7.637383262917785</v>
       </c>
       <c r="K17">
-        <v>12.84389448452067</v>
+        <v>12.29117607066594</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.77675582989328</v>
       </c>
       <c r="M17">
-        <v>29.22104857547049</v>
+        <v>7.601951185882941</v>
       </c>
       <c r="N17">
-        <v>5.369916712449921</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>29.20381024578003</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.398783741198384</v>
       </c>
       <c r="Q17">
-        <v>10.73412686988199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.4138634799369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.99347412106686</v>
+        <v>10.02429836254922</v>
       </c>
       <c r="D18">
-        <v>6.499421091754989</v>
+        <v>6.659244660185139</v>
       </c>
       <c r="E18">
-        <v>9.955039428318184</v>
+        <v>9.645273063807135</v>
       </c>
       <c r="F18">
-        <v>14.23197887301489</v>
+        <v>13.63499104474671</v>
       </c>
       <c r="G18">
-        <v>15.30272624852985</v>
+        <v>13.67154003240143</v>
       </c>
       <c r="H18">
-        <v>4.603030268530415</v>
+        <v>4.593075420213752</v>
       </c>
       <c r="I18">
-        <v>3.325321286665459</v>
+        <v>3.309433662383205</v>
       </c>
       <c r="J18">
-        <v>7.380279780951179</v>
+        <v>7.809408149023962</v>
       </c>
       <c r="K18">
-        <v>13.37264797169096</v>
+        <v>12.75658070277963</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.11181159758064</v>
       </c>
       <c r="M18">
-        <v>28.88146593764779</v>
+        <v>7.965273629371438</v>
       </c>
       <c r="N18">
-        <v>5.756798291479877</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>28.86481039928967</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.801333653548242</v>
       </c>
       <c r="Q18">
-        <v>11.15073542850477</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>10.79081466761351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.7143099179154</v>
+        <v>10.6192797313011</v>
       </c>
       <c r="D19">
-        <v>6.306004873669722</v>
+        <v>6.478138819164489</v>
       </c>
       <c r="E19">
-        <v>11.29107453764488</v>
+        <v>10.92611287384712</v>
       </c>
       <c r="F19">
-        <v>14.94632456468453</v>
+        <v>14.27177803959515</v>
       </c>
       <c r="G19">
-        <v>16.55662084532919</v>
+        <v>14.77460520990975</v>
       </c>
       <c r="H19">
-        <v>3.301673177541745</v>
+        <v>3.285578782979186</v>
       </c>
       <c r="I19">
-        <v>3.348050142677052</v>
+        <v>3.329522355046261</v>
       </c>
       <c r="J19">
-        <v>7.567913723575555</v>
+        <v>7.970044725795083</v>
       </c>
       <c r="K19">
-        <v>14.03397747366428</v>
+        <v>13.31449289856404</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.5014046184273</v>
       </c>
       <c r="M19">
-        <v>28.77473524904696</v>
+        <v>8.433636002926187</v>
       </c>
       <c r="N19">
-        <v>6.405069849487151</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>28.75686791058792</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.465728275007419</v>
       </c>
       <c r="Q19">
-        <v>11.64091826162682</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.20990347684638</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.04324595935162</v>
+        <v>11.73383116945566</v>
       </c>
       <c r="D20">
-        <v>6.136930546909785</v>
+        <v>6.348492325794647</v>
       </c>
       <c r="E20">
-        <v>13.63453340693676</v>
+        <v>13.17912142049898</v>
       </c>
       <c r="F20">
-        <v>16.118449960571</v>
+        <v>15.24247315675088</v>
       </c>
       <c r="G20">
-        <v>18.5405697213081</v>
+        <v>16.74936064291728</v>
       </c>
       <c r="H20">
-        <v>2.449897891263033</v>
+        <v>2.410698951732341</v>
       </c>
       <c r="I20">
-        <v>3.474648484135853</v>
+        <v>3.438647944417282</v>
       </c>
       <c r="J20">
-        <v>7.819317224542948</v>
+        <v>8.08282479723583</v>
       </c>
       <c r="K20">
-        <v>15.1024136286365</v>
+        <v>14.16195415295624</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.0345704702197</v>
       </c>
       <c r="M20">
-        <v>29.32776272777051</v>
+        <v>9.248230467259813</v>
       </c>
       <c r="N20">
-        <v>7.641047424345613</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>29.3036808248777</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.719499064837616</v>
       </c>
       <c r="Q20">
-        <v>12.36521419325077</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>11.76797563720742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.75658176072893</v>
+        <v>12.39824884336922</v>
       </c>
       <c r="D21">
-        <v>6.382285868977935</v>
+        <v>6.688406520824859</v>
       </c>
       <c r="E21">
-        <v>14.41928671624324</v>
+        <v>13.93027766140119</v>
       </c>
       <c r="F21">
-        <v>16.54395986189112</v>
+        <v>15.26510648180228</v>
       </c>
       <c r="G21">
-        <v>19.03264452346431</v>
+        <v>18.81469539258083</v>
       </c>
       <c r="H21">
-        <v>2.711369790859055</v>
+        <v>2.642801330077462</v>
       </c>
       <c r="I21">
-        <v>3.6924808723356</v>
+        <v>3.622103371634649</v>
       </c>
       <c r="J21">
-        <v>7.759232426250827</v>
+        <v>7.473515718130817</v>
       </c>
       <c r="K21">
-        <v>15.3661141134008</v>
+        <v>14.13136861941811</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.833866993024</v>
       </c>
       <c r="M21">
-        <v>31.05017072250144</v>
+        <v>9.535208647849252</v>
       </c>
       <c r="N21">
-        <v>7.989411334240682</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>31.01352107785517</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.057886052366404</v>
       </c>
       <c r="Q21">
-        <v>12.3901203001764</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>11.50540334682923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>14.18597619343075</v>
+        <v>12.80906419115569</v>
       </c>
       <c r="D22">
-        <v>6.54328989857611</v>
+        <v>6.912063722782428</v>
       </c>
       <c r="E22">
-        <v>14.82395515896676</v>
+        <v>14.31868025062741</v>
       </c>
       <c r="F22">
-        <v>16.80772751630174</v>
+        <v>15.25372088178726</v>
       </c>
       <c r="G22">
-        <v>19.33109563087984</v>
+        <v>20.27780128606467</v>
       </c>
       <c r="H22">
-        <v>2.873247105308614</v>
+        <v>2.78628916400935</v>
       </c>
       <c r="I22">
-        <v>3.826801918622874</v>
+        <v>3.733647253935331</v>
       </c>
       <c r="J22">
-        <v>7.718137616047356</v>
+        <v>7.137865066286501</v>
       </c>
       <c r="K22">
-        <v>15.52154484759484</v>
+        <v>14.08745519869424</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.68676857632036</v>
       </c>
       <c r="M22">
-        <v>32.12637898735684</v>
+        <v>9.709895020319973</v>
       </c>
       <c r="N22">
-        <v>8.151339259663381</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>32.08183493802859</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.212453607642715</v>
       </c>
       <c r="Q22">
-        <v>12.40082694012531</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>11.31432322503956</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.99251764943948</v>
+        <v>12.61506987117695</v>
       </c>
       <c r="D23">
-        <v>6.45259613741785</v>
+        <v>6.780944324523565</v>
       </c>
       <c r="E23">
-        <v>14.62119266146774</v>
+        <v>14.12161476631796</v>
       </c>
       <c r="F23">
-        <v>16.69005116422574</v>
+        <v>15.31379521882825</v>
       </c>
       <c r="G23">
-        <v>19.2127066592466</v>
+        <v>19.33956637005362</v>
       </c>
       <c r="H23">
-        <v>2.788328501942471</v>
+        <v>2.711719661502499</v>
       </c>
       <c r="I23">
-        <v>3.752936045500463</v>
+        <v>3.671265928507036</v>
       </c>
       <c r="J23">
-        <v>7.746431644313945</v>
+        <v>7.353484381247857</v>
       </c>
       <c r="K23">
-        <v>15.46431265155548</v>
+        <v>14.15439472341142</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.79344499048776</v>
       </c>
       <c r="M23">
-        <v>31.55688299119065</v>
+        <v>9.653869182965813</v>
       </c>
       <c r="N23">
-        <v>8.063367886720194</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>31.51689223045411</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.129348429316291</v>
       </c>
       <c r="Q23">
-        <v>12.41168423539058</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.45418975790975</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.1718755710643</v>
+        <v>11.84675602135517</v>
       </c>
       <c r="D24">
-        <v>6.105954478226346</v>
+        <v>6.318040555126478</v>
       </c>
       <c r="E24">
-        <v>13.8058456207122</v>
+        <v>13.3449649289514</v>
       </c>
       <c r="F24">
-        <v>16.23096509771548</v>
+        <v>15.34774807412494</v>
       </c>
       <c r="G24">
-        <v>18.74456369533828</v>
+        <v>16.92670289121368</v>
       </c>
       <c r="H24">
-        <v>2.458049655444333</v>
+        <v>2.418457088873265</v>
       </c>
       <c r="I24">
-        <v>3.471720260508995</v>
+        <v>3.433403798461809</v>
       </c>
       <c r="J24">
-        <v>7.852547574199392</v>
+        <v>8.114618082857472</v>
       </c>
       <c r="K24">
-        <v>15.21742284813253</v>
+        <v>14.26446393752185</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.10802790131518</v>
       </c>
       <c r="M24">
-        <v>29.30125777948765</v>
+        <v>9.33069088378315</v>
       </c>
       <c r="N24">
-        <v>7.725396250563129</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>29.27702393993385</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.805325926384585</v>
       </c>
       <c r="Q24">
-        <v>12.44978757234086</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>11.84420807274387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>12.21698307480851</v>
+        <v>11.04934431015355</v>
       </c>
       <c r="D25">
-        <v>5.707703236332589</v>
+        <v>5.869323231234542</v>
       </c>
       <c r="E25">
-        <v>12.86743937204234</v>
+        <v>12.47876605507543</v>
       </c>
       <c r="F25">
-        <v>15.79057407071232</v>
+        <v>15.08618497200403</v>
       </c>
       <c r="G25">
-        <v>18.34242667754235</v>
+        <v>16.58666536657103</v>
       </c>
       <c r="H25">
-        <v>2.086597152486466</v>
+        <v>2.07950083231795</v>
       </c>
       <c r="I25">
-        <v>3.157829150049372</v>
+        <v>3.15905209630187</v>
       </c>
       <c r="J25">
-        <v>7.98686971270207</v>
+        <v>8.296849122856042</v>
       </c>
       <c r="K25">
-        <v>14.97749432620937</v>
+        <v>14.1863744580221</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.309443395982</v>
       </c>
       <c r="M25">
-        <v>26.65729841565988</v>
+        <v>8.856834616065171</v>
       </c>
       <c r="N25">
-        <v>7.344911261310052</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>26.64527775688283</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.42982411829424</v>
       </c>
       <c r="Q25">
-        <v>12.541546264367</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.05824765742383</v>
       </c>
     </row>
   </sheetData>
